--- a/data/T.xlsx
+++ b/data/T.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1057,18 +1057,18 @@
   <dimension ref="A1:L955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="12.8888888888889"/>
-    <col min="5" max="5" width="11.7777777777778"/>
+    <col min="1" max="4" width="12.8916666666667"/>
+    <col min="5" max="5" width="11.775"/>
     <col min="6" max="7" width="10.6666666666667"/>
-    <col min="8" max="8" width="11.7777777777778"/>
-    <col min="9" max="9" width="12.8888888888889"/>
-    <col min="10" max="10" width="11.7777777777778"/>
-    <col min="11" max="11" width="12.8888888888889"/>
+    <col min="8" max="8" width="11.775"/>
+    <col min="9" max="9" width="12.8916666666667"/>
+    <col min="10" max="10" width="11.775"/>
+    <col min="11" max="11" width="12.8916666666667"/>
     <col min="12" max="12" width="10.6666666666667"/>
   </cols>
   <sheetData>
@@ -1103,7 +1103,6 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1"/>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1138,6 @@
       <c r="J2" s="3">
         <v>1.7963091</v>
       </c>
-      <c r="K2"/>
       <c r="L2">
         <v>0.086713</v>
       </c>
@@ -1175,7 +1173,6 @@
       <c r="J3" s="3">
         <v>3.2642455</v>
       </c>
-      <c r="K3"/>
       <c r="L3">
         <v>0</v>
       </c>
@@ -1211,7 +1208,6 @@
       <c r="J4" s="3">
         <v>1.740492</v>
       </c>
-      <c r="K4"/>
       <c r="L4">
         <v>0.04557</v>
       </c>
@@ -1247,7 +1243,6 @@
       <c r="J5" s="3">
         <v>2.9212132</v>
       </c>
-      <c r="K5"/>
       <c r="L5">
         <v>1.083976</v>
       </c>
@@ -1283,7 +1278,6 @@
       <c r="J6" s="3">
         <v>2.108131</v>
       </c>
-      <c r="K6"/>
       <c r="L6">
         <v>0.016075</v>
       </c>
@@ -1319,7 +1313,6 @@
       <c r="J7" s="3">
         <v>2.2970388</v>
       </c>
-      <c r="K7"/>
       <c r="L7">
         <v>0.0267</v>
       </c>
@@ -1355,7 +1348,6 @@
       <c r="J8" s="3">
         <v>2.1368709</v>
       </c>
-      <c r="K8"/>
       <c r="L8">
         <v>2.977333</v>
       </c>
@@ -1391,7 +1383,6 @@
       <c r="J9" s="3">
         <v>1.4541936</v>
       </c>
-      <c r="K9"/>
       <c r="L9">
         <v>0.228091</v>
       </c>
@@ -1427,7 +1418,6 @@
       <c r="J10" s="3">
         <v>23.466227</v>
       </c>
-      <c r="K10"/>
       <c r="L10">
         <v>0.047322</v>
       </c>
@@ -1463,7 +1453,6 @@
       <c r="J11" s="3">
         <v>1.5786778</v>
       </c>
-      <c r="K11"/>
       <c r="L11">
         <v>1.632864</v>
       </c>
@@ -1499,7 +1488,6 @@
       <c r="J12" s="3">
         <v>5.1522593</v>
       </c>
-      <c r="K12"/>
       <c r="L12">
         <v>0</v>
       </c>
@@ -1535,7 +1523,6 @@
       <c r="J13" s="3">
         <v>1.9323944</v>
       </c>
-      <c r="K13"/>
       <c r="L13">
         <v>0.73</v>
       </c>
@@ -1571,7 +1558,6 @@
       <c r="J14" s="3">
         <v>8.695855</v>
       </c>
-      <c r="K14"/>
       <c r="L14">
         <v>0.200331</v>
       </c>
@@ -1607,7 +1593,6 @@
       <c r="J15" s="3">
         <v>1.6684664</v>
       </c>
-      <c r="K15"/>
       <c r="L15">
         <v>0.167267</v>
       </c>
@@ -1643,7 +1628,6 @@
       <c r="J16" s="3">
         <v>7.37415</v>
       </c>
-      <c r="K16"/>
       <c r="L16">
         <v>0</v>
       </c>
@@ -1679,7 +1663,6 @@
       <c r="J17" s="3">
         <v>0.8811803</v>
       </c>
-      <c r="K17"/>
       <c r="L17">
         <v>0.053377</v>
       </c>
@@ -1715,7 +1698,6 @@
       <c r="J18" s="3">
         <v>26.339386</v>
       </c>
-      <c r="K18"/>
       <c r="L18">
         <v>0</v>
       </c>
@@ -1751,7 +1733,6 @@
       <c r="J19" s="3">
         <v>1.7635581</v>
       </c>
-      <c r="K19"/>
       <c r="L19">
         <v>0.013228</v>
       </c>
@@ -1787,7 +1768,6 @@
       <c r="J20" s="3">
         <v>0.6936649</v>
       </c>
-      <c r="K20"/>
       <c r="L20">
         <v>0.049076</v>
       </c>
@@ -1823,7 +1803,6 @@
       <c r="J21" s="3">
         <v>1.1376805</v>
       </c>
-      <c r="K21"/>
       <c r="L21">
         <v>0.402588</v>
       </c>
@@ -1859,7 +1838,6 @@
       <c r="J22" s="3">
         <v>1.6538603</v>
       </c>
-      <c r="K22"/>
       <c r="L22">
         <v>0.34311</v>
       </c>
@@ -1895,7 +1873,6 @@
       <c r="J23" s="3">
         <v>24.757011</v>
       </c>
-      <c r="K23"/>
       <c r="L23">
         <v>0</v>
       </c>
@@ -1931,7 +1908,6 @@
       <c r="J24" s="3">
         <v>4.535016</v>
       </c>
-      <c r="K24"/>
       <c r="L24">
         <v>0</v>
       </c>
@@ -1967,7 +1943,6 @@
       <c r="J25" s="3">
         <v>1.8920379</v>
       </c>
-      <c r="K25"/>
       <c r="L25">
         <v>0.78763</v>
       </c>
@@ -2003,7 +1978,6 @@
       <c r="J26" s="3">
         <v>0.9582457</v>
       </c>
-      <c r="K26"/>
       <c r="L26">
         <v>0.063747</v>
       </c>
@@ -2039,7 +2013,6 @@
       <c r="J27" s="3">
         <v>17.526596</v>
       </c>
-      <c r="K27"/>
       <c r="L27">
         <v>0</v>
       </c>
@@ -2075,7 +2048,6 @@
       <c r="J28" s="3">
         <v>1.2268496</v>
       </c>
-      <c r="K28"/>
       <c r="L28">
         <v>0.034546</v>
       </c>
@@ -2111,7 +2083,6 @@
       <c r="J29" s="3">
         <v>6.41488</v>
       </c>
-      <c r="K29"/>
       <c r="L29">
         <v>0.014353</v>
       </c>
@@ -2147,7 +2118,6 @@
       <c r="J30" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K30"/>
       <c r="L30">
         <v>0.08241</v>
       </c>
@@ -2183,7 +2153,6 @@
       <c r="J31" s="3">
         <v>1.4011103</v>
       </c>
-      <c r="K31"/>
       <c r="L31">
         <v>0.331779</v>
       </c>
@@ -2219,7 +2188,6 @@
       <c r="J32" s="3">
         <v>4.174861</v>
       </c>
-      <c r="K32"/>
       <c r="L32">
         <v>0.01663</v>
       </c>
@@ -2255,7 +2223,6 @@
       <c r="J33" s="3">
         <v>4.8363714</v>
       </c>
-      <c r="K33"/>
       <c r="L33">
         <v>0.210804</v>
       </c>
@@ -2291,7 +2258,6 @@
       <c r="J34" s="3">
         <v>9.578398</v>
       </c>
-      <c r="K34"/>
       <c r="L34">
         <v>0.020179</v>
       </c>
@@ -2327,7 +2293,6 @@
       <c r="J35" s="3">
         <v>25.77886</v>
       </c>
-      <c r="K35"/>
       <c r="L35">
         <v>0</v>
       </c>
@@ -2363,7 +2328,6 @@
       <c r="J36" s="3">
         <v>1.7211486</v>
       </c>
-      <c r="K36"/>
       <c r="L36">
         <v>0.57</v>
       </c>
@@ -2399,7 +2363,6 @@
       <c r="J37" s="3">
         <v>6.121868</v>
       </c>
-      <c r="K37"/>
       <c r="L37">
         <v>0.021665</v>
       </c>
@@ -2435,7 +2398,6 @@
       <c r="J38" s="3">
         <v>3.0587358</v>
       </c>
-      <c r="K38"/>
       <c r="L38">
         <v>6.293365</v>
       </c>
@@ -2471,7 +2433,6 @@
       <c r="J39" s="3">
         <v>1.6346663</v>
       </c>
-      <c r="K39"/>
       <c r="L39">
         <v>0.760417</v>
       </c>
@@ -2507,7 +2468,6 @@
       <c r="J40" s="3">
         <v>5.3300495</v>
       </c>
-      <c r="K40"/>
       <c r="L40">
         <v>0.040177</v>
       </c>
@@ -2543,7 +2503,6 @@
       <c r="J41" s="3">
         <v>1.8873113</v>
       </c>
-      <c r="K41"/>
       <c r="L41">
         <v>0.097666</v>
       </c>
@@ -2579,7 +2538,6 @@
       <c r="J42" s="3">
         <v>2.846572</v>
       </c>
-      <c r="K42"/>
       <c r="L42">
         <v>9.238534</v>
       </c>
@@ -2615,7 +2573,6 @@
       <c r="J43" s="3">
         <v>1.6538603</v>
       </c>
-      <c r="K43"/>
       <c r="L43">
         <v>0.182944</v>
       </c>
@@ -2651,7 +2608,6 @@
       <c r="J44" s="3">
         <v>3.7551608</v>
       </c>
-      <c r="K44"/>
       <c r="L44">
         <v>0.011177</v>
       </c>
@@ -2687,7 +2643,6 @@
       <c r="J45" s="3">
         <v>2.3389668</v>
       </c>
-      <c r="K45"/>
       <c r="L45">
         <v>0.16317</v>
       </c>
@@ -2723,7 +2678,6 @@
       <c r="J46" s="3">
         <v>2.0119407</v>
       </c>
-      <c r="K46"/>
       <c r="L46">
         <v>4.383276</v>
       </c>
@@ -2759,7 +2713,6 @@
       <c r="J47" s="3">
         <v>2.1864939</v>
       </c>
-      <c r="K47"/>
       <c r="L47">
         <v>0.274223</v>
       </c>
@@ -2795,7 +2748,6 @@
       <c r="J48" s="3">
         <v>1.598427</v>
       </c>
-      <c r="K48"/>
       <c r="L48">
         <v>0.231</v>
       </c>
@@ -2831,7 +2783,6 @@
       <c r="J49" s="3">
         <v>2.4827194</v>
       </c>
-      <c r="K49"/>
       <c r="L49">
         <v>0.133333</v>
       </c>
@@ -2867,7 +2818,6 @@
       <c r="J50" s="3">
         <v>1.8290842</v>
       </c>
-      <c r="K50"/>
       <c r="L50">
         <v>0.060675</v>
       </c>
@@ -2903,7 +2853,6 @@
       <c r="J51" s="3">
         <v>4.9115286</v>
       </c>
-      <c r="K51"/>
       <c r="L51">
         <v>0.506766</v>
       </c>
@@ -2939,7 +2888,6 @@
       <c r="J52" s="3">
         <v>1.740492</v>
       </c>
-      <c r="K52"/>
       <c r="L52">
         <v>0.068729</v>
       </c>
@@ -2975,7 +2923,6 @@
       <c r="J53" s="3">
         <v>1.4663208</v>
       </c>
-      <c r="K53"/>
       <c r="L53">
         <v>0.30879</v>
       </c>
@@ -3011,7 +2958,6 @@
       <c r="J54" s="3">
         <v>2.8828397</v>
       </c>
-      <c r="K54"/>
       <c r="L54">
         <v>5.891707</v>
       </c>
@@ -3047,7 +2993,6 @@
       <c r="J55" s="3">
         <v>45.248253</v>
       </c>
-      <c r="K55"/>
       <c r="L55">
         <v>2.395833</v>
       </c>
@@ -3083,7 +3028,6 @@
       <c r="J56" s="3">
         <v>2.4047575</v>
       </c>
-      <c r="K56"/>
       <c r="L56">
         <v>22.4162</v>
       </c>
@@ -3119,7 +3063,6 @@
       <c r="J57" s="3">
         <v>1.3471586</v>
       </c>
-      <c r="K57"/>
       <c r="L57">
         <v>0.081207</v>
       </c>
@@ -3155,7 +3098,6 @@
       <c r="J58" s="3">
         <v>2.3681767</v>
       </c>
-      <c r="K58"/>
       <c r="L58">
         <v>0.086895</v>
       </c>
@@ -3191,7 +3133,6 @@
       <c r="J59" s="3">
         <v>0.7861482</v>
       </c>
-      <c r="K59"/>
       <c r="L59">
         <v>0.116398</v>
       </c>
@@ -3227,7 +3168,6 @@
       <c r="J60" s="3">
         <v>3.2833056</v>
       </c>
-      <c r="K60"/>
       <c r="L60">
         <v>7.252628</v>
       </c>
@@ -3263,7 +3203,6 @@
       <c r="J61" s="3">
         <v>0.98576313</v>
       </c>
-      <c r="K61"/>
       <c r="L61">
         <v>0.146074</v>
       </c>
@@ -3299,7 +3238,6 @@
       <c r="J62" s="3">
         <v>1.4759471</v>
       </c>
-      <c r="K62"/>
       <c r="L62">
         <v>0.006235</v>
       </c>
@@ -3335,7 +3273,6 @@
       <c r="J63" s="3">
         <v>5.700833</v>
       </c>
-      <c r="K63"/>
       <c r="L63">
         <v>0.089565</v>
       </c>
@@ -3371,7 +3308,6 @@
       <c r="J64" s="3">
         <v>1.2607816</v>
       </c>
-      <c r="K64"/>
       <c r="L64">
         <v>0.005309</v>
       </c>
@@ -3407,7 +3343,6 @@
       <c r="J65" s="3">
         <v>4.9115286</v>
       </c>
-      <c r="K65"/>
       <c r="L65">
         <v>0</v>
       </c>
@@ -3443,7 +3378,6 @@
       <c r="J66" s="3">
         <v>3.9620929</v>
       </c>
-      <c r="K66"/>
       <c r="L66">
         <v>0.337314</v>
       </c>
@@ -3479,7 +3413,6 @@
       <c r="J67" s="3">
         <v>5.04796</v>
       </c>
-      <c r="K67"/>
       <c r="L67">
         <v>0.008704</v>
       </c>
@@ -3515,7 +3448,6 @@
       <c r="J68" s="3">
         <v>3.9620929</v>
       </c>
-      <c r="K68"/>
       <c r="L68">
         <v>0.451786</v>
       </c>
@@ -3551,7 +3483,6 @@
       <c r="J69" s="3">
         <v>1.7799684</v>
       </c>
-      <c r="K69"/>
       <c r="L69">
         <v>0.218413</v>
       </c>
@@ -3587,7 +3518,6 @@
       <c r="J70" s="3">
         <v>2.9821343</v>
       </c>
-      <c r="K70"/>
       <c r="L70">
         <v>0.411627</v>
       </c>
@@ -3623,7 +3553,6 @@
       <c r="J71" s="3">
         <v>1.947485</v>
       </c>
-      <c r="K71"/>
       <c r="L71">
         <v>5.74337</v>
       </c>
@@ -3659,7 +3588,6 @@
       <c r="J72" s="3">
         <v>1.7307031</v>
       </c>
-      <c r="K72"/>
       <c r="L72">
         <v>0.501453</v>
       </c>
@@ -3695,7 +3623,6 @@
       <c r="J73" s="3">
         <v>2.2394922</v>
       </c>
-      <c r="K73"/>
       <c r="L73">
         <v>4.136879</v>
       </c>
@@ -3731,7 +3658,6 @@
       <c r="J74" s="3">
         <v>3.9022498</v>
       </c>
-      <c r="K74"/>
       <c r="L74">
         <v>0.056059</v>
       </c>
@@ -3767,7 +3693,6 @@
       <c r="J75" s="3">
         <v>4.225185</v>
       </c>
-      <c r="K75"/>
       <c r="L75">
         <v>0.072294</v>
       </c>
@@ -3803,7 +3728,6 @@
       <c r="J76" s="3">
         <v>4.8871903</v>
       </c>
-      <c r="K76"/>
       <c r="L76">
         <v>0.030139</v>
       </c>
@@ -3839,7 +3763,6 @@
       <c r="J77" s="3">
         <v>4.8977885</v>
       </c>
-      <c r="K77"/>
       <c r="L77">
         <v>0.580413</v>
       </c>
@@ -3875,7 +3798,6 @@
       <c r="J78" s="3">
         <v>1.2612914</v>
       </c>
-      <c r="K78"/>
       <c r="L78">
         <v>0.138471</v>
       </c>
@@ -3911,7 +3833,6 @@
       <c r="J79" s="3">
         <v>1.5070189</v>
       </c>
-      <c r="K79"/>
       <c r="L79">
         <v>0.666638</v>
       </c>
@@ -3947,7 +3868,6 @@
       <c r="J80" s="3">
         <v>36.5454</v>
       </c>
-      <c r="K80"/>
       <c r="L80">
         <v>2.979167</v>
       </c>
@@ -3983,7 +3903,6 @@
       <c r="J81" s="3">
         <v>1.9595621</v>
       </c>
-      <c r="K81"/>
       <c r="L81">
         <v>0.360438</v>
       </c>
@@ -4019,7 +3938,6 @@
       <c r="J82" s="3">
         <v>30.819786</v>
       </c>
-      <c r="K82"/>
       <c r="L82">
         <v>0.04833</v>
       </c>
@@ -4055,7 +3973,6 @@
       <c r="J83" s="3">
         <v>2.848488</v>
       </c>
-      <c r="K83"/>
       <c r="L83">
         <v>0.216667</v>
       </c>
@@ -4091,7 +4008,6 @@
       <c r="J84" s="3">
         <v>2.0556128</v>
       </c>
-      <c r="K84"/>
       <c r="L84">
         <v>0.813379</v>
       </c>
@@ -4127,7 +4043,6 @@
       <c r="J85" s="3">
         <v>1.7085241</v>
       </c>
-      <c r="K85"/>
       <c r="L85">
         <v>0.201166</v>
       </c>
@@ -4163,7 +4078,6 @@
       <c r="J86" s="3">
         <v>26.52156</v>
       </c>
-      <c r="K86"/>
       <c r="L86">
         <v>0</v>
       </c>
@@ -4199,7 +4113,6 @@
       <c r="J87" s="3">
         <v>3.2729955</v>
       </c>
-      <c r="K87"/>
       <c r="L87">
         <v>0.411862</v>
       </c>
@@ -4235,7 +4148,6 @@
       <c r="J88" s="3">
         <v>2.9164808</v>
       </c>
-      <c r="K88"/>
       <c r="L88">
         <v>3.187497</v>
       </c>
@@ -4271,7 +4183,6 @@
       <c r="J89" s="3">
         <v>70.06694</v>
       </c>
-      <c r="K89"/>
       <c r="L89">
         <v>9.6</v>
       </c>
@@ -4307,7 +4218,6 @@
       <c r="J90" s="3">
         <v>5.1506577</v>
       </c>
-      <c r="K90"/>
       <c r="L90">
         <v>0.017999</v>
       </c>
@@ -4343,7 +4253,6 @@
       <c r="J91" s="3">
         <v>1.0824485</v>
       </c>
-      <c r="K91"/>
       <c r="L91">
         <v>0.848419</v>
       </c>
@@ -4379,7 +4288,6 @@
       <c r="J92" s="3">
         <v>1.6411303</v>
       </c>
-      <c r="K92"/>
       <c r="L92">
         <v>0.083913</v>
       </c>
@@ -4415,7 +4323,6 @@
       <c r="J93" s="3">
         <v>4.2600636</v>
       </c>
-      <c r="K93"/>
       <c r="L93">
         <v>0</v>
       </c>
@@ -4451,7 +4358,6 @@
       <c r="J94" s="3">
         <v>0.6904351</v>
       </c>
-      <c r="K94"/>
       <c r="L94">
         <v>0.111713</v>
       </c>
@@ -4487,7 +4393,6 @@
       <c r="J95" s="3">
         <v>1.523429</v>
       </c>
-      <c r="K95"/>
       <c r="L95">
         <v>0.515066</v>
       </c>
@@ -4523,7 +4428,6 @@
       <c r="J96" s="3">
         <v>1.5673012</v>
       </c>
-      <c r="K96"/>
       <c r="L96">
         <v>0.017663</v>
       </c>
@@ -4559,7 +4463,6 @@
       <c r="J97" s="3">
         <v>2.3397832</v>
       </c>
-      <c r="K97"/>
       <c r="L97">
         <v>0.11</v>
       </c>
@@ -4595,7 +4498,6 @@
       <c r="J98" s="3">
         <v>1.8257407</v>
       </c>
-      <c r="K98"/>
       <c r="L98">
         <v>0.171999</v>
       </c>
@@ -4631,7 +4533,6 @@
       <c r="J99" s="3">
         <v>1.7923014</v>
       </c>
-      <c r="K99"/>
       <c r="L99">
         <v>0.411917</v>
       </c>
@@ -4667,7 +4568,6 @@
       <c r="J100" s="3">
         <v>1.3510754</v>
       </c>
-      <c r="K100"/>
       <c r="L100">
         <v>0</v>
       </c>
@@ -4703,7 +4603,6 @@
       <c r="J101" s="3">
         <v>1.5334214</v>
       </c>
-      <c r="K101"/>
       <c r="L101">
         <v>0.360385</v>
       </c>
@@ -4739,7 +4638,6 @@
       <c r="J102" s="3">
         <v>1.6443474</v>
       </c>
-      <c r="K102"/>
       <c r="L102">
         <v>1.23</v>
       </c>
@@ -4775,7 +4673,6 @@
       <c r="J103" s="3">
         <v>12.556099</v>
       </c>
-      <c r="K103"/>
       <c r="L103">
         <v>0.004684</v>
       </c>
@@ -4811,7 +4708,6 @@
       <c r="J104" s="3">
         <v>1.6065017</v>
       </c>
-      <c r="K104"/>
       <c r="L104">
         <v>0.344158</v>
       </c>
@@ -4847,7 +4743,6 @@
       <c r="J105" s="3">
         <v>10.88462</v>
       </c>
-      <c r="K105"/>
       <c r="L105">
         <v>0.008126</v>
       </c>
@@ -4883,7 +4778,6 @@
       <c r="J106" s="3">
         <v>1.6913972</v>
       </c>
-      <c r="K106"/>
       <c r="L106">
         <v>0.126938</v>
       </c>
@@ -4919,7 +4813,6 @@
       <c r="J107" s="3">
         <v>3.6802943</v>
       </c>
-      <c r="K107"/>
       <c r="L107">
         <v>0.10036</v>
       </c>
@@ -4955,7 +4848,6 @@
       <c r="J108" s="3">
         <v>9.901664</v>
       </c>
-      <c r="K108"/>
       <c r="L108">
         <v>0.030317</v>
       </c>
@@ -4991,7 +4883,6 @@
       <c r="J109" s="3">
         <v>29.332731</v>
       </c>
-      <c r="K109"/>
       <c r="L109">
         <v>0.013499</v>
       </c>
@@ -5027,7 +4918,6 @@
       <c r="J110" s="3">
         <v>10.066098</v>
       </c>
-      <c r="K110"/>
       <c r="L110">
         <v>0</v>
       </c>
@@ -5063,7 +4953,6 @@
       <c r="J111" s="3">
         <v>1.2827867</v>
       </c>
-      <c r="K111"/>
       <c r="L111">
         <v>0.094559</v>
       </c>
@@ -5099,7 +4988,6 @@
       <c r="J112" s="3">
         <v>2.114067</v>
       </c>
-      <c r="K112"/>
       <c r="L112">
         <v>1.31768</v>
       </c>
@@ -5135,7 +5023,6 @@
       <c r="J113" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K113"/>
       <c r="L113">
         <v>0.05612</v>
       </c>
@@ -5171,7 +5058,6 @@
       <c r="J114" s="3">
         <v>2.9164808</v>
       </c>
-      <c r="K114"/>
       <c r="L114">
         <v>1.582836</v>
       </c>
@@ -5207,7 +5093,6 @@
       <c r="J115" s="3">
         <v>0.9574305</v>
       </c>
-      <c r="K115"/>
       <c r="L115">
         <v>0.030571</v>
       </c>
@@ -5243,7 +5128,6 @@
       <c r="J116" s="3">
         <v>0.8912651</v>
       </c>
-      <c r="K116"/>
       <c r="L116">
         <v>0.091685</v>
       </c>
@@ -5279,7 +5163,6 @@
       <c r="J117" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K117"/>
       <c r="L117">
         <v>0.114059</v>
       </c>
@@ -5315,7 +5198,6 @@
       <c r="J118" s="3">
         <v>32.152863</v>
       </c>
-      <c r="K118"/>
       <c r="L118">
         <v>2.8</v>
       </c>
@@ -5351,7 +5233,6 @@
       <c r="J119" s="3">
         <v>9.185733</v>
       </c>
-      <c r="K119"/>
       <c r="L119">
         <v>0.097374</v>
       </c>
@@ -5387,7 +5268,6 @@
       <c r="J120" s="3">
         <v>1.0806487</v>
       </c>
-      <c r="K120"/>
       <c r="L120">
         <v>2.175247</v>
       </c>
@@ -5423,7 +5303,6 @@
       <c r="J121" s="3">
         <v>3.322883</v>
       </c>
-      <c r="K121"/>
       <c r="L121">
         <v>0.015568</v>
       </c>
@@ -5459,7 +5338,6 @@
       <c r="J122" s="3">
         <v>23.233517</v>
       </c>
-      <c r="K122"/>
       <c r="L122">
         <v>1.299974</v>
       </c>
@@ -5495,7 +5373,6 @@
       <c r="J123" s="3">
         <v>1.8038048</v>
       </c>
-      <c r="K123"/>
       <c r="L123">
         <v>0.63396</v>
       </c>
@@ -5531,7 +5408,6 @@
       <c r="J124" s="3">
         <v>2.729451</v>
       </c>
-      <c r="K124"/>
       <c r="L124">
         <v>15.04933</v>
       </c>
@@ -5567,7 +5443,6 @@
       <c r="J125" s="3">
         <v>1.534963</v>
       </c>
-      <c r="K125"/>
       <c r="L125">
         <v>0</v>
       </c>
@@ -5603,7 +5478,6 @@
       <c r="J126" s="3">
         <v>8.668276</v>
       </c>
-      <c r="K126"/>
       <c r="L126">
         <v>0.030121</v>
       </c>
@@ -5639,7 +5513,6 @@
       <c r="J127" s="3">
         <v>8.590088</v>
       </c>
-      <c r="K127"/>
       <c r="L127">
         <v>0.051523</v>
       </c>
@@ -5675,7 +5548,6 @@
       <c r="J128" s="3">
         <v>4.7568655</v>
       </c>
-      <c r="K128"/>
       <c r="L128">
         <v>0.078007</v>
       </c>
@@ -5711,7 +5583,6 @@
       <c r="J129" s="3">
         <v>1.7923014</v>
       </c>
-      <c r="K129"/>
       <c r="L129">
         <v>7.011284</v>
       </c>
@@ -5747,7 +5618,6 @@
       <c r="J130" s="3">
         <v>2.6897497</v>
       </c>
-      <c r="K130"/>
       <c r="L130">
         <v>0.045651</v>
       </c>
@@ -5783,7 +5653,6 @@
       <c r="J131" s="3">
         <v>8.586269</v>
       </c>
-      <c r="K131"/>
       <c r="L131">
         <v>0.073514</v>
       </c>
@@ -5819,7 +5688,6 @@
       <c r="J132" s="3">
         <v>2.3775625</v>
       </c>
-      <c r="K132"/>
       <c r="L132">
         <v>2.372212</v>
       </c>
@@ -5855,7 +5723,6 @@
       <c r="J133" s="3">
         <v>12.474596</v>
       </c>
-      <c r="K133"/>
       <c r="L133">
         <v>0.010227</v>
       </c>
@@ -5891,7 +5758,6 @@
       <c r="J134" s="3">
         <v>1.6608324</v>
       </c>
-      <c r="K134"/>
       <c r="L134">
         <v>0.249169</v>
       </c>
@@ -5927,7 +5793,6 @@
       <c r="J135" s="3">
         <v>0.74206454</v>
       </c>
-      <c r="K135"/>
       <c r="L135">
         <v>0.049826</v>
       </c>
@@ -5963,7 +5828,6 @@
       <c r="J136" s="3">
         <v>1.5300329</v>
       </c>
-      <c r="K136"/>
       <c r="L136">
         <v>0.110665</v>
       </c>
@@ -5999,7 +5863,6 @@
       <c r="J137" s="3">
         <v>1.0477309</v>
       </c>
-      <c r="K137"/>
       <c r="L137">
         <v>0.223266</v>
       </c>
@@ -6035,7 +5898,6 @@
       <c r="J138" s="3">
         <v>3.7824833</v>
       </c>
-      <c r="K138"/>
       <c r="L138">
         <v>0.19</v>
       </c>
@@ -6071,7 +5933,6 @@
       <c r="J139" s="3">
         <v>7.2574053</v>
       </c>
-      <c r="K139"/>
       <c r="L139">
         <v>0</v>
       </c>
@@ -6107,7 +5968,6 @@
       <c r="J140" s="3">
         <v>1.2797585</v>
       </c>
-      <c r="K140"/>
       <c r="L140">
         <v>10.078667</v>
       </c>
@@ -6143,7 +6003,6 @@
       <c r="J141" s="3">
         <v>1.5900543</v>
       </c>
-      <c r="K141"/>
       <c r="L141">
         <v>0.681445</v>
       </c>
@@ -6179,7 +6038,6 @@
       <c r="J142" s="3">
         <v>1.6704097</v>
       </c>
-      <c r="K142"/>
       <c r="L142">
         <v>0.56</v>
       </c>
@@ -6215,7 +6073,6 @@
       <c r="J143" s="3">
         <v>6.5466146</v>
       </c>
-      <c r="K143"/>
       <c r="L143">
         <v>0.024001</v>
       </c>
@@ -6251,7 +6108,6 @@
       <c r="J144" s="3">
         <v>1.4353347</v>
       </c>
-      <c r="K144"/>
       <c r="L144">
         <v>0.439924</v>
       </c>
@@ -6287,7 +6143,6 @@
       <c r="J145" s="3">
         <v>8.026837</v>
       </c>
-      <c r="K145"/>
       <c r="L145">
         <v>0.015106</v>
       </c>
@@ -6323,7 +6178,6 @@
       <c r="J146" s="3">
         <v>4.7073493</v>
       </c>
-      <c r="K146"/>
       <c r="L146">
         <v>0</v>
       </c>
@@ -6359,7 +6213,6 @@
       <c r="J147" s="3">
         <v>1.9323944</v>
       </c>
-      <c r="K147"/>
       <c r="L147">
         <v>0.29</v>
       </c>
@@ -6395,7 +6248,6 @@
       <c r="J148" s="3">
         <v>1.9217077</v>
       </c>
-      <c r="K148"/>
       <c r="L148">
         <v>0.236725</v>
       </c>
@@ -6431,7 +6283,6 @@
       <c r="J149" s="3">
         <v>18.42466</v>
       </c>
-      <c r="K149"/>
       <c r="L149">
         <v>0.044996</v>
       </c>
@@ -6467,7 +6318,6 @@
       <c r="J150" s="3">
         <v>78.8353</v>
       </c>
-      <c r="K150"/>
       <c r="L150">
         <v>1.32</v>
       </c>
@@ -6503,7 +6353,6 @@
       <c r="J151" s="3">
         <v>8.747895</v>
       </c>
-      <c r="K151"/>
       <c r="L151">
         <v>0</v>
       </c>
@@ -6539,7 +6388,6 @@
       <c r="J152" s="3">
         <v>1.3238602</v>
       </c>
-      <c r="K152"/>
       <c r="L152">
         <v>0.08117</v>
       </c>
@@ -6575,7 +6423,6 @@
       <c r="J153" s="3">
         <v>2.9164808</v>
       </c>
-      <c r="K153"/>
       <c r="L153">
         <v>3.187498</v>
       </c>
@@ -6611,7 +6458,6 @@
       <c r="J154" s="3">
         <v>2.7238579</v>
       </c>
-      <c r="K154"/>
       <c r="L154">
         <v>15.320029</v>
       </c>
@@ -6647,7 +6493,6 @@
       <c r="J155" s="3">
         <v>4.7655687</v>
       </c>
-      <c r="K155"/>
       <c r="L155">
         <v>0.015956</v>
       </c>
@@ -6683,7 +6528,6 @@
       <c r="J156" s="3">
         <v>1.8457085</v>
       </c>
-      <c r="K156"/>
       <c r="L156">
         <v>1.114427</v>
       </c>
@@ -6719,7 +6563,6 @@
       <c r="J157" s="3">
         <v>6.008627</v>
       </c>
-      <c r="K157"/>
       <c r="L157">
         <v>0</v>
       </c>
@@ -6755,7 +6598,6 @@
       <c r="J158" s="3">
         <v>1.6157544</v>
       </c>
-      <c r="K158"/>
       <c r="L158">
         <v>0.03125</v>
       </c>
@@ -6791,7 +6633,6 @@
       <c r="J159" s="3">
         <v>2.9847438</v>
       </c>
-      <c r="K159"/>
       <c r="L159">
         <v>0.558433</v>
       </c>
@@ -6827,7 +6668,6 @@
       <c r="J160" s="3">
         <v>9.663872</v>
       </c>
-      <c r="K160"/>
       <c r="L160">
         <v>0.049246</v>
       </c>
@@ -6863,7 +6703,6 @@
       <c r="J161" s="3">
         <v>4.671404</v>
       </c>
-      <c r="K161"/>
       <c r="L161">
         <v>0.008303</v>
       </c>
@@ -6899,7 +6738,6 @@
       <c r="J162" s="3">
         <v>3.339919</v>
       </c>
-      <c r="K162"/>
       <c r="L162">
         <v>7.753387</v>
       </c>
@@ -6935,7 +6773,6 @@
       <c r="J163" s="3">
         <v>1.8439087</v>
       </c>
-      <c r="K163"/>
       <c r="L163">
         <v>0.504667</v>
       </c>
@@ -6971,7 +6808,6 @@
       <c r="J164" s="3">
         <v>1.0576632</v>
       </c>
-      <c r="K164"/>
       <c r="L164">
         <v>0.22866</v>
       </c>
@@ -7007,7 +6843,6 @@
       <c r="J165" s="3">
         <v>1.6220286</v>
       </c>
-      <c r="K165"/>
       <c r="L165">
         <v>0.62</v>
       </c>
@@ -7043,7 +6878,6 @@
       <c r="J166" s="3">
         <v>10.88462</v>
       </c>
-      <c r="K166"/>
       <c r="L166">
         <v>0.046932</v>
       </c>
@@ -7079,7 +6913,6 @@
       <c r="J167" s="3">
         <v>1.3694276</v>
       </c>
-      <c r="K167"/>
       <c r="L167">
         <v>0.083479</v>
       </c>
@@ -7115,7 +6948,6 @@
       <c r="J168" s="3">
         <v>1.8500192</v>
       </c>
-      <c r="K168"/>
       <c r="L168">
         <v>0.654547</v>
       </c>
@@ -7151,7 +6983,6 @@
       <c r="J169" s="3">
         <v>1.6124136</v>
       </c>
-      <c r="K169"/>
       <c r="L169">
         <v>0.362114</v>
       </c>
@@ -7187,7 +7018,6 @@
       <c r="J170" s="3">
         <v>1.1314241</v>
       </c>
-      <c r="K170"/>
       <c r="L170">
         <v>0.040052</v>
       </c>
@@ -7223,7 +7053,6 @@
       <c r="J171" s="3">
         <v>32.147346</v>
       </c>
-      <c r="K171"/>
       <c r="L171">
         <v>0.031576</v>
       </c>
@@ -7259,7 +7088,6 @@
       <c r="J172" s="3">
         <v>5.6321006</v>
       </c>
-      <c r="K172"/>
       <c r="L172">
         <v>0</v>
       </c>
@@ -7295,7 +7123,6 @@
       <c r="J173" s="3">
         <v>9.548575</v>
       </c>
-      <c r="K173"/>
       <c r="L173">
         <v>0.003514</v>
       </c>
@@ -7331,7 +7158,6 @@
       <c r="J174" s="3">
         <v>2.1627853</v>
       </c>
-      <c r="K174"/>
       <c r="L174">
         <v>0.086835</v>
       </c>
@@ -7367,7 +7193,6 @@
       <c r="J175" s="3">
         <v>18.407661</v>
       </c>
-      <c r="K175"/>
       <c r="L175">
         <v>0</v>
       </c>
@@ -7403,7 +7228,6 @@
       <c r="J176" s="3">
         <v>2.8792717</v>
       </c>
-      <c r="K176"/>
       <c r="L176">
         <v>0.649773</v>
       </c>
@@ -7439,7 +7263,6 @@
       <c r="J177" s="3">
         <v>1.6897967</v>
       </c>
-      <c r="K177"/>
       <c r="L177">
         <v>5.179643</v>
       </c>
@@ -7475,7 +7298,6 @@
       <c r="J178" s="3">
         <v>0.8684445</v>
       </c>
-      <c r="K178"/>
       <c r="L178">
         <v>0.064147</v>
       </c>
@@ -7511,7 +7333,6 @@
       <c r="J179" s="3">
         <v>28.834805</v>
       </c>
-      <c r="K179"/>
       <c r="L179">
         <v>0.020206</v>
       </c>
@@ -7547,7 +7368,6 @@
       <c r="J180" s="3">
         <v>13.747596</v>
       </c>
-      <c r="K180"/>
       <c r="L180">
         <v>0.416986</v>
       </c>
@@ -7583,7 +7403,6 @@
       <c r="J181" s="3">
         <v>1.7410425</v>
       </c>
-      <c r="K181"/>
       <c r="L181">
         <v>0.046238</v>
       </c>
@@ -7619,7 +7438,6 @@
       <c r="J182" s="3">
         <v>11.723093</v>
       </c>
-      <c r="K182"/>
       <c r="L182">
         <v>0</v>
       </c>
@@ -7655,7 +7473,6 @@
       <c r="J183" s="3">
         <v>2.251353</v>
       </c>
-      <c r="K183"/>
       <c r="L183">
         <v>0.421333</v>
       </c>
@@ -7691,7 +7508,6 @@
       <c r="J184" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K184"/>
       <c r="L184">
         <v>0.043204</v>
       </c>
@@ -7727,7 +7543,6 @@
       <c r="J185" s="3">
         <v>2.0119407</v>
       </c>
-      <c r="K185"/>
       <c r="L185">
         <v>2.881837</v>
       </c>
@@ -7763,7 +7578,6 @@
       <c r="J186" s="3">
         <v>0.9291141</v>
       </c>
-      <c r="K186"/>
       <c r="L186">
         <v>0.131842</v>
       </c>
@@ -7799,7 +7613,6 @@
       <c r="J187" s="3">
         <v>3.0587358</v>
       </c>
-      <c r="K187"/>
       <c r="L187">
         <v>3.692509</v>
       </c>
@@ -7835,7 +7648,6 @@
       <c r="J188" s="3">
         <v>1.8355057</v>
       </c>
-      <c r="K188"/>
       <c r="L188">
         <v>0.11076</v>
       </c>
@@ -7871,7 +7683,6 @@
       <c r="J189" s="3">
         <v>4.542841</v>
       </c>
-      <c r="K189"/>
       <c r="L189">
         <v>0</v>
       </c>
@@ -7907,7 +7718,6 @@
       <c r="J190" s="3">
         <v>11.036362</v>
       </c>
-      <c r="K190"/>
       <c r="L190">
         <v>0</v>
       </c>
@@ -7943,7 +7753,6 @@
       <c r="J191" s="3">
         <v>5.1522593</v>
       </c>
-      <c r="K191"/>
       <c r="L191">
         <v>0.016313</v>
       </c>
@@ -7979,7 +7788,6 @@
       <c r="J192" s="3">
         <v>1.580258</v>
       </c>
-      <c r="K192"/>
       <c r="L192">
         <v>0.614031</v>
       </c>
@@ -8015,7 +7823,6 @@
       <c r="J193" s="3">
         <v>1.798373</v>
       </c>
-      <c r="K193"/>
       <c r="L193">
         <v>0.057351</v>
       </c>
@@ -8051,7 +7858,6 @@
       <c r="J194" s="3">
         <v>1.4745678</v>
       </c>
-      <c r="K194"/>
       <c r="L194">
         <v>0.659117</v>
       </c>
@@ -8087,7 +7893,6 @@
       <c r="J195" s="3">
         <v>1.9981983</v>
       </c>
-      <c r="K195"/>
       <c r="L195">
         <v>0.896025</v>
       </c>
@@ -8123,7 +7928,6 @@
       <c r="J196" s="3">
         <v>1.6219317</v>
       </c>
-      <c r="K196"/>
       <c r="L196">
         <v>0.014598</v>
       </c>
@@ -8159,7 +7963,6 @@
       <c r="J197" s="3">
         <v>9.503035</v>
       </c>
-      <c r="K197"/>
       <c r="L197">
         <v>0</v>
       </c>
@@ -8195,7 +7998,6 @@
       <c r="J198" s="3">
         <v>4.9936857</v>
       </c>
-      <c r="K198"/>
       <c r="L198">
         <v>0</v>
       </c>
@@ -8231,7 +8033,6 @@
       <c r="J199" s="3">
         <v>1.598427</v>
       </c>
-      <c r="K199"/>
       <c r="L199">
         <v>0.16</v>
       </c>
@@ -8267,7 +8068,6 @@
       <c r="J200" s="3">
         <v>5.035329</v>
       </c>
-      <c r="K200"/>
       <c r="L200">
         <v>0.065269</v>
       </c>
@@ -8303,7 +8103,6 @@
       <c r="J201" s="3">
         <v>9.65388</v>
       </c>
-      <c r="K201"/>
       <c r="L201">
         <v>0.981702</v>
       </c>
@@ -8339,7 +8138,6 @@
       <c r="J202" s="3">
         <v>9.747218</v>
       </c>
-      <c r="K202"/>
       <c r="L202">
         <v>0.015236</v>
       </c>
@@ -8375,7 +8173,6 @@
       <c r="J203" s="3">
         <v>1.1675618</v>
       </c>
-      <c r="K203"/>
       <c r="L203">
         <v>0.106402</v>
       </c>
@@ -8411,7 +8208,6 @@
       <c r="J204" s="3">
         <v>1.045948</v>
       </c>
-      <c r="K204"/>
       <c r="L204">
         <v>0.642699</v>
       </c>
@@ -8447,7 +8243,6 @@
       <c r="J205" s="3">
         <v>8.18913</v>
       </c>
-      <c r="K205"/>
       <c r="L205">
         <v>0.018918</v>
       </c>
@@ -8483,7 +8278,6 @@
       <c r="J206" s="3">
         <v>2.6870158</v>
       </c>
-      <c r="K206"/>
       <c r="L206">
         <v>0.008802</v>
       </c>
@@ -8519,7 +8313,6 @@
       <c r="J207" s="3">
         <v>2.6681004</v>
       </c>
-      <c r="K207"/>
       <c r="L207">
         <v>1.857298</v>
       </c>
@@ -8555,7 +8348,6 @@
       <c r="J208" s="3">
         <v>34.327507</v>
       </c>
-      <c r="K208"/>
       <c r="L208">
         <v>0</v>
       </c>
@@ -8591,7 +8383,6 @@
       <c r="J209" s="3">
         <v>5.211715</v>
       </c>
-      <c r="K209"/>
       <c r="L209">
         <v>0</v>
       </c>
@@ -8627,7 +8418,6 @@
       <c r="J210" s="3">
         <v>2.227375</v>
       </c>
-      <c r="K210"/>
       <c r="L210">
         <v>0.008908</v>
       </c>
@@ -8663,7 +8453,6 @@
       <c r="J211" s="3">
         <v>10.574376</v>
       </c>
-      <c r="K211"/>
       <c r="L211">
         <v>0</v>
       </c>
@@ -8699,7 +8488,6 @@
       <c r="J212" s="3">
         <v>1.6641556</v>
       </c>
-      <c r="K212"/>
       <c r="L212">
         <v>1.094618</v>
       </c>
@@ -8735,7 +8523,6 @@
       <c r="J213" s="3">
         <v>9.083221</v>
       </c>
-      <c r="K213"/>
       <c r="L213">
         <v>0.054857</v>
       </c>
@@ -8771,7 +8558,6 @@
       <c r="J214" s="3">
         <v>7.4764047</v>
       </c>
-      <c r="K214"/>
       <c r="L214">
         <v>0.340447</v>
       </c>
@@ -8807,7 +8593,6 @@
       <c r="J215" s="3">
         <v>78.8353</v>
       </c>
-      <c r="K215"/>
       <c r="L215">
         <v>0.64</v>
       </c>
@@ -8843,7 +8628,6 @@
       <c r="J216" s="3">
         <v>2.557078</v>
       </c>
-      <c r="K216"/>
       <c r="L216">
         <v>0.026251</v>
       </c>
@@ -8879,7 +8663,6 @@
       <c r="J217" s="3">
         <v>1.5196481</v>
       </c>
-      <c r="K217"/>
       <c r="L217">
         <v>0.063986</v>
       </c>
@@ -8915,7 +8698,6 @@
       <c r="J218" s="3">
         <v>1.1884835</v>
       </c>
-      <c r="K218"/>
       <c r="L218">
         <v>0.008001</v>
       </c>
@@ -8951,7 +8733,6 @@
       <c r="J219" s="3">
         <v>1.3551117</v>
       </c>
-      <c r="K219"/>
       <c r="L219">
         <v>0.953333</v>
       </c>
@@ -8987,7 +8768,6 @@
       <c r="J220" s="3">
         <v>1.3177302</v>
       </c>
-      <c r="K220"/>
       <c r="L220">
         <v>0.015786</v>
       </c>
@@ -9023,7 +8803,6 @@
       <c r="J221" s="3">
         <v>5.3370643</v>
       </c>
-      <c r="K221"/>
       <c r="L221">
         <v>0</v>
       </c>
@@ -9059,7 +8838,6 @@
       <c r="J222" s="3">
         <v>1.7428331</v>
       </c>
-      <c r="K222"/>
       <c r="L222">
         <v>0.10361</v>
       </c>
@@ -9095,7 +8873,6 @@
       <c r="J223" s="3">
         <v>8.52768</v>
       </c>
-      <c r="K223"/>
       <c r="L223">
         <v>0.009662</v>
       </c>
@@ -9131,7 +8908,6 @@
       <c r="J224" s="3">
         <v>15.115674</v>
       </c>
-      <c r="K224"/>
       <c r="L224">
         <v>0</v>
       </c>
@@ -9167,7 +8943,6 @@
       <c r="J225" s="3">
         <v>2.729451</v>
       </c>
-      <c r="K225"/>
       <c r="L225">
         <v>4.954054</v>
       </c>
@@ -9203,7 +8978,6 @@
       <c r="J226" s="3">
         <v>3.0429323</v>
       </c>
-      <c r="K226"/>
       <c r="L226">
         <v>0.262985</v>
       </c>
@@ -9239,7 +9013,6 @@
       <c r="J227" s="3">
         <v>4.5089297</v>
       </c>
-      <c r="K227"/>
       <c r="L227">
         <v>0.05217</v>
       </c>
@@ -9275,7 +9048,6 @@
       <c r="J228" s="3">
         <v>0.91150427</v>
       </c>
-      <c r="K228"/>
       <c r="L228">
         <v>0.603952</v>
       </c>
@@ -9311,7 +9083,6 @@
       <c r="J229" s="3">
         <v>19.646887</v>
       </c>
-      <c r="K229"/>
       <c r="L229">
         <v>3.284107</v>
       </c>
@@ -9347,7 +9118,6 @@
       <c r="J230" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K230"/>
       <c r="L230">
         <v>10.896818</v>
       </c>
@@ -9383,7 +9153,6 @@
       <c r="J231" s="3">
         <v>1.1951429</v>
       </c>
-      <c r="K231"/>
       <c r="L231">
         <v>0.524865</v>
       </c>
@@ -9419,7 +9188,6 @@
       <c r="J232" s="3">
         <v>17.993513</v>
       </c>
-      <c r="K232"/>
       <c r="L232">
         <v>2.479167</v>
       </c>
@@ -9455,7 +9223,6 @@
       <c r="J233" s="3">
         <v>10.528075</v>
       </c>
-      <c r="K233"/>
       <c r="L233">
         <v>0.014975</v>
       </c>
@@ -9491,7 +9258,6 @@
       <c r="J234" s="3">
         <v>2.831767</v>
       </c>
-      <c r="K234"/>
       <c r="L234">
         <v>0.0955</v>
       </c>
@@ -9527,7 +9293,6 @@
       <c r="J235" s="3">
         <v>1.9104667</v>
       </c>
-      <c r="K235"/>
       <c r="L235">
         <v>0.049996</v>
       </c>
@@ -9563,7 +9328,6 @@
       <c r="J236" s="3">
         <v>1.0477309</v>
       </c>
-      <c r="K236"/>
       <c r="L236">
         <v>0.406509</v>
       </c>
@@ -9599,7 +9363,6 @@
       <c r="J237" s="3">
         <v>1.917042</v>
       </c>
-      <c r="K237"/>
       <c r="L237">
         <v>2.093125</v>
       </c>
@@ -9635,7 +9398,6 @@
       <c r="J238" s="3">
         <v>2.4741132</v>
       </c>
-      <c r="K238"/>
       <c r="L238">
         <v>0.18105</v>
       </c>
@@ -9671,7 +9433,6 @@
       <c r="J239" s="3">
         <v>2.0287917</v>
       </c>
-      <c r="K239"/>
       <c r="L239">
         <v>0.329563</v>
       </c>
@@ -9707,7 +9468,6 @@
       <c r="J240" s="3">
         <v>1.917042</v>
       </c>
-      <c r="K240"/>
       <c r="L240">
         <v>0.827634</v>
       </c>
@@ -9743,7 +9503,6 @@
       <c r="J241" s="3">
         <v>1.8185452</v>
       </c>
-      <c r="K241"/>
       <c r="L241">
         <v>0.33127</v>
       </c>
@@ -9779,7 +9538,6 @@
       <c r="J242" s="3">
         <v>7.249456</v>
       </c>
-      <c r="K242"/>
       <c r="L242">
         <v>0.057832</v>
       </c>
@@ -9815,7 +9573,6 @@
       <c r="J243" s="3">
         <v>15.635111</v>
       </c>
-      <c r="K243"/>
       <c r="L243">
         <v>0</v>
       </c>
@@ -9851,7 +9608,6 @@
       <c r="J244" s="3">
         <v>1.5692713</v>
       </c>
-      <c r="K244"/>
       <c r="L244">
         <v>0.206054</v>
       </c>
@@ -9887,7 +9643,6 @@
       <c r="J245" s="3">
         <v>1.4053559</v>
       </c>
-      <c r="K245"/>
       <c r="L245">
         <v>0.590667</v>
       </c>
@@ -9923,7 +9678,6 @@
       <c r="J246" s="3">
         <v>1.1279757</v>
       </c>
-      <c r="K246"/>
       <c r="L246">
         <v>0.687988</v>
       </c>
@@ -9959,7 +9713,6 @@
       <c r="J247" s="3">
         <v>2.3546193</v>
       </c>
-      <c r="K247"/>
       <c r="L247">
         <v>0.005401</v>
       </c>
@@ -9995,7 +9748,6 @@
       <c r="J248" s="3">
         <v>2.1562083</v>
       </c>
-      <c r="K248"/>
       <c r="L248">
         <v>0.003263</v>
       </c>
@@ -10031,7 +9783,6 @@
       <c r="J249" s="3">
         <v>0.5836767</v>
       </c>
-      <c r="K249"/>
       <c r="L249">
         <v>0.469466</v>
       </c>
@@ -10067,7 +9818,6 @@
       <c r="J250" s="3">
         <v>61.953274</v>
       </c>
-      <c r="K250"/>
       <c r="L250">
         <v>0</v>
       </c>
@@ -10103,7 +9853,6 @@
       <c r="J251" s="3">
         <v>2.9164808</v>
       </c>
-      <c r="K251"/>
       <c r="L251">
         <v>1.582826</v>
       </c>
@@ -10139,7 +9888,6 @@
       <c r="J252" s="3">
         <v>1.7912266</v>
       </c>
-      <c r="K252"/>
       <c r="L252">
         <v>0.247088</v>
       </c>
@@ -10175,7 +9923,6 @@
       <c r="J253" s="3">
         <v>34.41442</v>
       </c>
-      <c r="K253"/>
       <c r="L253">
         <v>0</v>
       </c>
@@ -10211,7 +9958,6 @@
       <c r="J254" s="3">
         <v>10.383159</v>
       </c>
-      <c r="K254"/>
       <c r="L254">
         <v>0</v>
       </c>
@@ -10247,7 +9993,6 @@
       <c r="J255" s="3">
         <v>1.9638972</v>
       </c>
-      <c r="K255"/>
       <c r="L255">
         <v>0.091036</v>
       </c>
@@ -10283,7 +10028,6 @@
       <c r="J256" s="3">
         <v>5.5056615</v>
       </c>
-      <c r="K256"/>
       <c r="L256">
         <v>1.245991</v>
       </c>
@@ -10319,7 +10063,6 @@
       <c r="J257" s="3">
         <v>1.9402252</v>
       </c>
-      <c r="K257"/>
       <c r="L257">
         <v>0.053017</v>
       </c>
@@ -10355,7 +10098,6 @@
       <c r="J258" s="3">
         <v>2.7513244</v>
       </c>
-      <c r="K258"/>
       <c r="L258">
         <v>0.038388</v>
       </c>
@@ -10391,7 +10133,6 @@
       <c r="J259" s="3">
         <v>0.44585988</v>
       </c>
-      <c r="K259"/>
       <c r="L259">
         <v>0.021318</v>
       </c>
@@ -10427,7 +10168,6 @@
       <c r="J260" s="3">
         <v>1.0806487</v>
       </c>
-      <c r="K260"/>
       <c r="L260">
         <v>1.018862</v>
       </c>
@@ -10463,7 +10203,6 @@
       <c r="J261" s="3">
         <v>5.1975365</v>
       </c>
-      <c r="K261"/>
       <c r="L261">
         <v>0.008161</v>
       </c>
@@ -10499,7 +10238,6 @@
       <c r="J262" s="3">
         <v>1.5856329</v>
       </c>
-      <c r="K262"/>
       <c r="L262">
         <v>0.512617</v>
       </c>
@@ -10535,7 +10273,6 @@
       <c r="J263" s="3">
         <v>1.6665207</v>
       </c>
-      <c r="K263"/>
       <c r="L263">
         <v>0.309219</v>
       </c>
@@ -10571,7 +10308,6 @@
       <c r="J264" s="3">
         <v>51.777702</v>
       </c>
-      <c r="K264"/>
       <c r="L264">
         <v>1.5</v>
       </c>
@@ -10607,7 +10343,6 @@
       <c r="J265" s="3">
         <v>1.2589808</v>
       </c>
-      <c r="K265"/>
       <c r="L265">
         <v>0.019253</v>
       </c>
@@ -10643,7 +10378,6 @@
       <c r="J266" s="3">
         <v>2.3176737</v>
       </c>
-      <c r="K266"/>
       <c r="L266">
         <v>0.107</v>
       </c>
@@ -10679,7 +10413,6 @@
       <c r="J267" s="3">
         <v>2.3389668</v>
       </c>
-      <c r="K267"/>
       <c r="L267">
         <v>0.529742</v>
       </c>
@@ -10715,7 +10448,6 @@
       <c r="J268" s="3">
         <v>10.20795</v>
       </c>
-      <c r="K268"/>
       <c r="L268">
         <v>0.042016</v>
       </c>
@@ -10751,7 +10483,6 @@
       <c r="J269" s="3">
         <v>1.4745678</v>
       </c>
-      <c r="K269"/>
       <c r="L269">
         <v>0.686521</v>
       </c>
@@ -10787,7 +10518,6 @@
       <c r="J270" s="3">
         <v>2.9593968</v>
       </c>
-      <c r="K270"/>
       <c r="L270">
         <v>10.217707</v>
       </c>
@@ -10823,7 +10553,6 @@
       <c r="J271" s="3">
         <v>3.6802943</v>
       </c>
-      <c r="K271"/>
       <c r="L271">
         <v>0.168787</v>
       </c>
@@ -10859,7 +10588,6 @@
       <c r="J272" s="3">
         <v>1.2106109</v>
       </c>
-      <c r="K272"/>
       <c r="L272">
         <v>0.033217</v>
       </c>
@@ -10895,7 +10623,6 @@
       <c r="J273" s="3">
         <v>2.1748934</v>
       </c>
-      <c r="K273"/>
       <c r="L273">
         <v>0.087769</v>
       </c>
@@ -10931,7 +10658,6 @@
       <c r="J274" s="3">
         <v>1.1744825</v>
       </c>
-      <c r="K274"/>
       <c r="L274">
         <v>0.543901</v>
       </c>
@@ -10967,7 +10693,6 @@
       <c r="J275" s="3">
         <v>8.605096</v>
       </c>
-      <c r="K275"/>
       <c r="L275">
         <v>0.071016</v>
       </c>
@@ -11003,7 +10728,6 @@
       <c r="J276" s="3">
         <v>5.88434</v>
       </c>
-      <c r="K276"/>
       <c r="L276">
         <v>0</v>
       </c>
@@ -11039,7 +10763,6 @@
       <c r="J277" s="3">
         <v>14.0645</v>
       </c>
-      <c r="K277"/>
       <c r="L277">
         <v>0.197789</v>
       </c>
@@ -11075,7 +10798,6 @@
       <c r="J278" s="3">
         <v>1.7721835</v>
       </c>
-      <c r="K278"/>
       <c r="L278">
         <v>0.003448</v>
       </c>
@@ -11111,7 +10833,6 @@
       <c r="J279" s="3">
         <v>61.582478</v>
       </c>
-      <c r="K279"/>
       <c r="L279">
         <v>0.338072</v>
       </c>
@@ -11147,7 +10868,6 @@
       <c r="J280" s="3">
         <v>1.9452581</v>
       </c>
-      <c r="K280"/>
       <c r="L280">
         <v>1.848387</v>
       </c>
@@ -11183,7 +10903,6 @@
       <c r="J281" s="3">
         <v>3.4591022</v>
       </c>
-      <c r="K281"/>
       <c r="L281">
         <v>0.008901</v>
       </c>
@@ -11219,7 +10938,6 @@
       <c r="J282" s="3">
         <v>10.569243</v>
       </c>
-      <c r="K282"/>
       <c r="L282">
         <v>0.304642</v>
       </c>
@@ -11255,7 +10973,6 @@
       <c r="J283" s="3">
         <v>1.451432</v>
       </c>
-      <c r="K283"/>
       <c r="L283">
         <v>0.165478</v>
       </c>
@@ -11291,7 +11008,6 @@
       <c r="J284" s="3">
         <v>2.8414092</v>
       </c>
-      <c r="K284"/>
       <c r="L284">
         <v>0.048541</v>
       </c>
@@ -11327,7 +11043,6 @@
       <c r="J285" s="3">
         <v>2.3389668</v>
       </c>
-      <c r="K285"/>
       <c r="L285">
         <v>0.190422</v>
       </c>
@@ -11363,7 +11078,6 @@
       <c r="J286" s="3">
         <v>3.6820896</v>
       </c>
-      <c r="K286"/>
       <c r="L286">
         <v>0.156827</v>
       </c>
@@ -11399,7 +11113,6 @@
       <c r="J287" s="3">
         <v>7.4764047</v>
       </c>
-      <c r="K287"/>
       <c r="L287">
         <v>0.30581</v>
       </c>
@@ -11435,7 +11148,6 @@
       <c r="J288" s="3">
         <v>8.886325</v>
       </c>
-      <c r="K288"/>
       <c r="L288">
         <v>0.021947</v>
       </c>
@@ -11471,7 +11183,6 @@
       <c r="J289" s="3">
         <v>4.111996</v>
       </c>
-      <c r="K289"/>
       <c r="L289">
         <v>0.169346</v>
       </c>
@@ -11507,7 +11218,6 @@
       <c r="J290" s="3">
         <v>17.993513</v>
       </c>
-      <c r="K290"/>
       <c r="L290">
         <v>2.145833</v>
       </c>
@@ -11543,7 +11253,6 @@
       <c r="J291" s="3">
         <v>21.954086</v>
       </c>
-      <c r="K291"/>
       <c r="L291">
         <v>0</v>
       </c>
@@ -11579,7 +11288,6 @@
       <c r="J292" s="3">
         <v>2.9212132</v>
       </c>
-      <c r="K292"/>
       <c r="L292">
         <v>1.921671</v>
       </c>
@@ -11615,7 +11323,6 @@
       <c r="J293" s="3">
         <v>31.702684</v>
       </c>
-      <c r="K293"/>
       <c r="L293">
         <v>2.482764</v>
       </c>
@@ -11651,7 +11358,6 @@
       <c r="J294" s="3">
         <v>2.7215488</v>
       </c>
-      <c r="K294"/>
       <c r="L294">
         <v>23.06106</v>
       </c>
@@ -11687,7 +11393,6 @@
       <c r="J295" s="3">
         <v>6.7552767</v>
       </c>
-      <c r="K295"/>
       <c r="L295">
         <v>0.102287</v>
       </c>
@@ -11723,7 +11428,6 @@
       <c r="J296" s="3">
         <v>1.6243294</v>
       </c>
-      <c r="K296"/>
       <c r="L296">
         <v>0.111062</v>
       </c>
@@ -11759,7 +11463,6 @@
       <c r="J297" s="3">
         <v>1.9533268</v>
       </c>
-      <c r="K297"/>
       <c r="L297">
         <v>0.836267</v>
       </c>
@@ -11795,7 +11498,6 @@
       <c r="J298" s="3">
         <v>5.8710723</v>
       </c>
-      <c r="K298"/>
       <c r="L298">
         <v>0.031501</v>
       </c>
@@ -11831,7 +11533,6 @@
       <c r="J299" s="3">
         <v>2.3880055</v>
       </c>
-      <c r="K299"/>
       <c r="L299">
         <v>0.028456</v>
       </c>
@@ -11867,7 +11568,6 @@
       <c r="J300" s="3">
         <v>1.6366874</v>
       </c>
-      <c r="K300"/>
       <c r="L300">
         <v>0.06</v>
       </c>
@@ -11903,7 +11603,6 @@
       <c r="J301" s="3">
         <v>2.264057</v>
       </c>
-      <c r="K301"/>
       <c r="L301">
         <v>0.099791</v>
       </c>
@@ -11939,7 +11638,6 @@
       <c r="J302" s="3">
         <v>9.517049</v>
       </c>
-      <c r="K302"/>
       <c r="L302">
         <v>0.039854</v>
       </c>
@@ -11975,7 +11673,6 @@
       <c r="J303" s="3">
         <v>0.96116936</v>
       </c>
-      <c r="K303"/>
       <c r="L303">
         <v>0.030836</v>
       </c>
@@ -12011,7 +11708,6 @@
       <c r="J304" s="3">
         <v>1.7399074</v>
       </c>
-      <c r="K304"/>
       <c r="L304">
         <v>3.656354</v>
       </c>
@@ -12047,7 +11743,6 @@
       <c r="J305" s="3">
         <v>3.8643384</v>
       </c>
-      <c r="K305"/>
       <c r="L305">
         <v>0.044292</v>
       </c>
@@ -12083,7 +11778,6 @@
       <c r="J306" s="3">
         <v>29.478798</v>
       </c>
-      <c r="K306"/>
       <c r="L306">
         <v>0</v>
       </c>
@@ -12119,7 +11813,6 @@
       <c r="J307" s="3">
         <v>2.3775625</v>
       </c>
-      <c r="K307"/>
       <c r="L307">
         <v>2.236627</v>
       </c>
@@ -12155,7 +11848,6 @@
       <c r="J308" s="3">
         <v>5.7435274</v>
       </c>
-      <c r="K308"/>
       <c r="L308">
         <v>0.039852</v>
       </c>
@@ -12191,7 +11883,6 @@
       <c r="J309" s="3">
         <v>1.197135</v>
       </c>
-      <c r="K309"/>
       <c r="L309">
         <v>0.020357</v>
       </c>
@@ -12227,7 +11918,6 @@
       <c r="J310" s="3">
         <v>1.5196481</v>
       </c>
-      <c r="K310"/>
       <c r="L310">
         <v>0.041031</v>
       </c>
@@ -12263,7 +11953,6 @@
       <c r="J311" s="3">
         <v>4.2315965</v>
       </c>
-      <c r="K311"/>
       <c r="L311">
         <v>0.022677</v>
       </c>
@@ -12299,7 +11988,6 @@
       <c r="J312" s="3">
         <v>1.1744825</v>
       </c>
-      <c r="K312"/>
       <c r="L312">
         <v>0.372222</v>
       </c>
@@ -12335,7 +12023,6 @@
       <c r="J313" s="3">
         <v>4.7285423</v>
       </c>
-      <c r="K313"/>
       <c r="L313">
         <v>0.143505</v>
       </c>
@@ -12371,7 +12058,6 @@
       <c r="J314" s="3">
         <v>2.9020977</v>
       </c>
-      <c r="K314"/>
       <c r="L314">
         <v>2.178</v>
       </c>
@@ -12407,7 +12093,6 @@
       <c r="J315" s="3">
         <v>1.8284312</v>
       </c>
-      <c r="K315"/>
       <c r="L315">
         <v>0.041016</v>
       </c>
@@ -12443,7 +12128,6 @@
       <c r="J316" s="3">
         <v>28.883608</v>
       </c>
-      <c r="K316"/>
       <c r="L316">
         <v>0.006735</v>
       </c>
@@ -12479,7 +12163,6 @@
       <c r="J317" s="3">
         <v>5.2937794</v>
       </c>
-      <c r="K317"/>
       <c r="L317">
         <v>0.013637</v>
       </c>
@@ -12515,7 +12198,6 @@
       <c r="J318" s="3">
         <v>1.8995888</v>
       </c>
-      <c r="K318"/>
       <c r="L318">
         <v>0.12145</v>
       </c>
@@ -12551,7 +12233,6 @@
       <c r="J319" s="3">
         <v>0.7524621</v>
       </c>
-      <c r="K319"/>
       <c r="L319">
         <v>0</v>
       </c>
@@ -12587,7 +12268,6 @@
       <c r="J320" s="3">
         <v>1.7037997</v>
       </c>
-      <c r="K320"/>
       <c r="L320">
         <v>0.31</v>
       </c>
@@ -12623,7 +12303,6 @@
       <c r="J321" s="3">
         <v>1.6443714</v>
       </c>
-      <c r="K321"/>
       <c r="L321">
         <v>0.647431</v>
       </c>
@@ -12659,7 +12338,6 @@
       <c r="J322" s="3">
         <v>1.6173728</v>
       </c>
-      <c r="K322"/>
       <c r="L322">
         <v>0.0063</v>
       </c>
@@ -12695,7 +12373,6 @@
       <c r="J323" s="3">
         <v>1.4141035</v>
       </c>
-      <c r="K323"/>
       <c r="L323">
         <v>0.03682</v>
       </c>
@@ -12731,7 +12408,6 @@
       <c r="J324" s="3">
         <v>4.174861</v>
       </c>
-      <c r="K324"/>
       <c r="L324">
         <v>0.016312</v>
       </c>
@@ -12767,7 +12443,6 @@
       <c r="J325" s="3">
         <v>1.9251072</v>
       </c>
-      <c r="K325"/>
       <c r="L325">
         <v>0.018049</v>
       </c>
@@ -12803,7 +12478,6 @@
       <c r="J326" s="3">
         <v>34.160442</v>
       </c>
-      <c r="K326"/>
       <c r="L326">
         <v>0.01348</v>
       </c>
@@ -12839,7 +12513,6 @@
       <c r="J327" s="3">
         <v>11.573044</v>
       </c>
-      <c r="K327"/>
       <c r="L327">
         <v>0.005502</v>
       </c>
@@ -12875,7 +12548,6 @@
       <c r="J328" s="3">
         <v>2.094317</v>
       </c>
-      <c r="K328"/>
       <c r="L328">
         <v>0.00401</v>
       </c>
@@ -12911,7 +12583,6 @@
       <c r="J329" s="3">
         <v>1.8993837</v>
       </c>
-      <c r="K329"/>
       <c r="L329">
         <v>0.6</v>
       </c>
@@ -12947,7 +12618,6 @@
       <c r="J330" s="3">
         <v>1.2601689</v>
       </c>
-      <c r="K330"/>
       <c r="L330">
         <v>0.00777</v>
       </c>
@@ -12983,7 +12653,6 @@
       <c r="J331" s="3">
         <v>3.433033</v>
       </c>
-      <c r="K331"/>
       <c r="L331">
         <v>42.069684</v>
       </c>
@@ -13019,7 +12688,6 @@
       <c r="J332" s="3">
         <v>1.6897967</v>
       </c>
-      <c r="K332"/>
       <c r="L332">
         <v>1.885194</v>
       </c>
@@ -13055,7 +12723,6 @@
       <c r="J333" s="3">
         <v>9.428665</v>
       </c>
-      <c r="K333"/>
       <c r="L333">
         <v>0.078349</v>
       </c>
@@ -13091,7 +12758,6 @@
       <c r="J334" s="3">
         <v>1.983894</v>
       </c>
-      <c r="K334"/>
       <c r="L334">
         <v>0.029616</v>
       </c>
@@ -13127,7 +12793,6 @@
       <c r="J335" s="3">
         <v>5.545537</v>
       </c>
-      <c r="K335"/>
       <c r="L335">
         <v>0.058198</v>
       </c>
@@ -13163,7 +12828,6 @@
       <c r="J336" s="3">
         <v>1.889602</v>
       </c>
-      <c r="K336"/>
       <c r="L336">
         <v>1.58825</v>
       </c>
@@ -13199,7 +12863,6 @@
       <c r="J337" s="3">
         <v>1.8609121</v>
       </c>
-      <c r="K337"/>
       <c r="L337">
         <v>0.020988</v>
       </c>
@@ -13235,7 +12898,6 @@
       <c r="J338" s="3">
         <v>1.1582775</v>
       </c>
-      <c r="K338"/>
       <c r="L338">
         <v>0.219</v>
       </c>
@@ -13271,7 +12933,6 @@
       <c r="J339" s="3">
         <v>1.4302759</v>
       </c>
-      <c r="K339"/>
       <c r="L339">
         <v>0.003562</v>
       </c>
@@ -13307,7 +12968,6 @@
       <c r="J340" s="3">
         <v>0.79361427</v>
       </c>
-      <c r="K340"/>
       <c r="L340">
         <v>0.026372</v>
       </c>
@@ -13343,7 +13003,6 @@
       <c r="J341" s="3">
         <v>12.261118</v>
       </c>
-      <c r="K341"/>
       <c r="L341">
         <v>0</v>
       </c>
@@ -13379,7 +13038,6 @@
       <c r="J342" s="3">
         <v>6.144091</v>
       </c>
-      <c r="K342"/>
       <c r="L342">
         <v>0.036143</v>
       </c>
@@ -13415,7 +13073,6 @@
       <c r="J343" s="3">
         <v>4.2769117</v>
       </c>
-      <c r="K343"/>
       <c r="L343">
         <v>0.043806</v>
       </c>
@@ -13451,7 +13108,6 @@
       <c r="J344" s="3">
         <v>8.17253</v>
       </c>
-      <c r="K344"/>
       <c r="L344">
         <v>0.054027</v>
       </c>
@@ -13487,7 +13143,6 @@
       <c r="J345" s="3">
         <v>5.0189586</v>
       </c>
-      <c r="K345"/>
       <c r="L345">
         <v>0.00992</v>
       </c>
@@ -13523,7 +13178,6 @@
       <c r="J346" s="3">
         <v>4.57991</v>
       </c>
-      <c r="K346"/>
       <c r="L346">
         <v>0.044416</v>
       </c>
@@ -13559,7 +13213,6 @@
       <c r="J347" s="3">
         <v>11.022178</v>
       </c>
-      <c r="K347"/>
       <c r="L347">
         <v>0.341669</v>
       </c>
@@ -13595,7 +13248,6 @@
       <c r="J348" s="3">
         <v>43.74992</v>
       </c>
-      <c r="K348"/>
       <c r="L348">
         <v>0.5219</v>
       </c>
@@ -13631,7 +13283,6 @@
       <c r="J349" s="3">
         <v>10.6073475</v>
       </c>
-      <c r="K349"/>
       <c r="L349">
         <v>0</v>
       </c>
@@ -13667,7 +13318,6 @@
       <c r="J350" s="3">
         <v>2.7215488</v>
       </c>
-      <c r="K350"/>
       <c r="L350">
         <v>7.162585</v>
       </c>
@@ -13703,7 +13353,6 @@
       <c r="J351" s="3">
         <v>2.2818656</v>
       </c>
-      <c r="K351"/>
       <c r="L351">
         <v>0.476025</v>
       </c>
@@ -13739,7 +13388,6 @@
       <c r="J352" s="3">
         <v>10.0983095</v>
       </c>
-      <c r="K352"/>
       <c r="L352">
         <v>0</v>
       </c>
@@ -13775,7 +13423,6 @@
       <c r="J353" s="3">
         <v>4.8977885</v>
       </c>
-      <c r="K353"/>
       <c r="L353">
         <v>0.580413</v>
       </c>
@@ -13811,7 +13458,6 @@
       <c r="J354" s="3">
         <v>1.3554842</v>
       </c>
-      <c r="K354"/>
       <c r="L354">
         <v>0.279242</v>
       </c>
@@ -13847,7 +13493,6 @@
       <c r="J355" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K355"/>
       <c r="L355">
         <v>1.009209</v>
       </c>
@@ -13883,7 +13528,6 @@
       <c r="J356" s="3">
         <v>3.6691477</v>
       </c>
-      <c r="K356"/>
       <c r="L356">
         <v>0</v>
       </c>
@@ -13919,7 +13563,6 @@
       <c r="J357" s="3">
         <v>7.249456</v>
       </c>
-      <c r="K357"/>
       <c r="L357">
         <v>0.034858</v>
       </c>
@@ -13955,7 +13598,6 @@
       <c r="J358" s="3">
         <v>1.4218141</v>
       </c>
-      <c r="K358"/>
       <c r="L358">
         <v>0.047767</v>
       </c>
@@ -13991,7 +13633,6 @@
       <c r="J359" s="3">
         <v>6.5466146</v>
       </c>
-      <c r="K359"/>
       <c r="L359">
         <v>0.016858</v>
       </c>
@@ -14027,7 +13668,6 @@
       <c r="J360" s="3">
         <v>1.9758221</v>
       </c>
-      <c r="K360"/>
       <c r="L360">
         <v>0.738667</v>
       </c>
@@ -14063,7 +13703,6 @@
       <c r="J361" s="3">
         <v>2.4891808</v>
       </c>
-      <c r="K361"/>
       <c r="L361">
         <v>0.136214</v>
       </c>
@@ -14099,7 +13738,6 @@
       <c r="J362" s="3">
         <v>3.433033</v>
       </c>
-      <c r="K362"/>
       <c r="L362">
         <v>15.664693</v>
       </c>
@@ -14135,7 +13773,6 @@
       <c r="J363" s="3">
         <v>3.6802943</v>
       </c>
-      <c r="K363"/>
       <c r="L363">
         <v>0.219575</v>
       </c>
@@ -14171,7 +13808,6 @@
       <c r="J364" s="3">
         <v>4.2600636</v>
       </c>
-      <c r="K364"/>
       <c r="L364">
         <v>0.010299</v>
       </c>
@@ -14207,7 +13843,6 @@
       <c r="J365" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K365"/>
       <c r="L365">
         <v>1.009204</v>
       </c>
@@ -14243,7 +13878,6 @@
       <c r="J366" s="3">
         <v>1.2186941</v>
       </c>
-      <c r="K366"/>
       <c r="L366">
         <v>0.019915</v>
       </c>
@@ -14279,7 +13913,6 @@
       <c r="J367" s="3">
         <v>1.6157544</v>
       </c>
-      <c r="K367"/>
       <c r="L367">
         <v>0.030864</v>
       </c>
@@ -14315,7 +13948,6 @@
       <c r="J368" s="3">
         <v>1.3303075</v>
       </c>
-      <c r="K368"/>
       <c r="L368">
         <v>1.399333</v>
       </c>
@@ -14351,7 +13983,6 @@
       <c r="J369" s="3">
         <v>4.2600636</v>
       </c>
-      <c r="K369"/>
       <c r="L369">
         <v>0</v>
       </c>
@@ -14387,7 +14018,6 @@
       <c r="J370" s="3">
         <v>2.3672626</v>
       </c>
-      <c r="K370"/>
       <c r="L370">
         <v>0.121639</v>
       </c>
@@ -14423,7 +14053,6 @@
       <c r="J371" s="3">
         <v>1.6397918</v>
       </c>
-      <c r="K371"/>
       <c r="L371">
         <v>3.748667</v>
       </c>
@@ -14459,7 +14088,6 @@
       <c r="J372" s="3">
         <v>1.7106704</v>
       </c>
-      <c r="K372"/>
       <c r="L372">
         <v>0.640223</v>
       </c>
@@ -14495,7 +14123,6 @@
       <c r="J373" s="3">
         <v>1.4349447</v>
       </c>
-      <c r="K373"/>
       <c r="L373">
         <v>0</v>
       </c>
@@ -14531,7 +14158,6 @@
       <c r="J374" s="3">
         <v>1.6113127</v>
       </c>
-      <c r="K374"/>
       <c r="L374">
         <v>0.19</v>
       </c>
@@ -14567,7 +14193,6 @@
       <c r="J375" s="3">
         <v>1.0806636</v>
       </c>
-      <c r="K375"/>
       <c r="L375">
         <v>0.05051</v>
       </c>
@@ -14603,7 +14228,6 @@
       <c r="J376" s="3">
         <v>1.4680339</v>
       </c>
-      <c r="K376"/>
       <c r="L376">
         <v>0.392784</v>
       </c>
@@ -14639,7 +14263,6 @@
       <c r="J377" s="3">
         <v>1.8616637</v>
       </c>
-      <c r="K377"/>
       <c r="L377">
         <v>0.195333</v>
       </c>
@@ -14675,7 +14298,6 @@
       <c r="J378" s="3">
         <v>26.352554</v>
       </c>
-      <c r="K378"/>
       <c r="L378">
         <v>0</v>
       </c>
@@ -14711,7 +14333,6 @@
       <c r="J379" s="3">
         <v>11.701769</v>
       </c>
-      <c r="K379"/>
       <c r="L379">
         <v>0.013169</v>
       </c>
@@ -14747,7 +14368,6 @@
       <c r="J380" s="3">
         <v>2.2472105</v>
       </c>
-      <c r="K380"/>
       <c r="L380">
         <v>0.0867</v>
       </c>
@@ -14783,7 +14403,6 @@
       <c r="J381" s="3">
         <v>2.553008</v>
       </c>
-      <c r="K381"/>
       <c r="L381">
         <v>0.03114</v>
       </c>
@@ -14819,7 +14438,6 @@
       <c r="J382" s="3">
         <v>1.3539293</v>
       </c>
-      <c r="K382"/>
       <c r="L382">
         <v>1.21601</v>
       </c>
@@ -14855,7 +14473,6 @@
       <c r="J383" s="3">
         <v>3.3469608</v>
       </c>
-      <c r="K383"/>
       <c r="L383">
         <v>0.032219</v>
       </c>
@@ -14891,7 +14508,6 @@
       <c r="J384" s="3">
         <v>2.3308861</v>
       </c>
-      <c r="K384"/>
       <c r="L384">
         <v>0.131</v>
       </c>
@@ -14927,7 +14543,6 @@
       <c r="J385" s="3">
         <v>1.4866043</v>
       </c>
-      <c r="K385"/>
       <c r="L385">
         <v>0.390936</v>
       </c>
@@ -14963,7 +14578,6 @@
       <c r="J386" s="3">
         <v>42.8711</v>
       </c>
-      <c r="K386"/>
       <c r="L386">
         <v>0.244216</v>
       </c>
@@ -14999,7 +14613,6 @@
       <c r="J387" s="3">
         <v>3.0239727</v>
       </c>
-      <c r="K387"/>
       <c r="L387">
         <v>0.0045</v>
       </c>
@@ -15035,7 +14648,6 @@
       <c r="J388" s="3">
         <v>2.253849</v>
       </c>
-      <c r="K388"/>
       <c r="L388">
         <v>0.289436</v>
       </c>
@@ -15071,7 +14683,6 @@
       <c r="J389" s="3">
         <v>5.6580677</v>
       </c>
-      <c r="K389"/>
       <c r="L389">
         <v>0.103899</v>
       </c>
@@ -15107,7 +14718,6 @@
       <c r="J390" s="3">
         <v>1.4514678</v>
       </c>
-      <c r="K390"/>
       <c r="L390">
         <v>0.187072</v>
       </c>
@@ -15143,7 +14753,6 @@
       <c r="J391" s="3">
         <v>1.3856362</v>
       </c>
-      <c r="K391"/>
       <c r="L391">
         <v>0.64623</v>
       </c>
@@ -15179,7 +14788,6 @@
       <c r="J392" s="3">
         <v>7.7325945</v>
       </c>
-      <c r="K392"/>
       <c r="L392">
         <v>0.009988</v>
       </c>
@@ -15215,7 +14823,6 @@
       <c r="J393" s="3">
         <v>1.6852672</v>
       </c>
-      <c r="K393"/>
       <c r="L393">
         <v>0.97</v>
       </c>
@@ -15251,7 +14858,6 @@
       <c r="J394" s="3">
         <v>1.478309</v>
       </c>
-      <c r="K394"/>
       <c r="L394">
         <v>0.017606</v>
       </c>
@@ -15287,7 +14893,6 @@
       <c r="J395" s="3">
         <v>18.755735</v>
       </c>
-      <c r="K395"/>
       <c r="L395">
         <v>0</v>
       </c>
@@ -15323,7 +14928,6 @@
       <c r="J396" s="3">
         <v>1.353368</v>
       </c>
-      <c r="K396"/>
       <c r="L396">
         <v>0.702357</v>
       </c>
@@ -15359,7 +14963,6 @@
       <c r="J397" s="3">
         <v>1.3550422</v>
       </c>
-      <c r="K397"/>
       <c r="L397">
         <v>0.597923</v>
       </c>
@@ -15395,7 +14998,6 @@
       <c r="J398" s="3">
         <v>1.2001172</v>
       </c>
-      <c r="K398"/>
       <c r="L398">
         <v>0.111578</v>
       </c>
@@ -15431,7 +15033,6 @@
       <c r="J399" s="3">
         <v>1.5196481</v>
       </c>
-      <c r="K399"/>
       <c r="L399">
         <v>0.354447</v>
       </c>
@@ -15467,7 +15068,6 @@
       <c r="J400" s="3">
         <v>2.950815</v>
       </c>
-      <c r="K400"/>
       <c r="L400">
         <v>0.383834</v>
       </c>
@@ -15503,7 +15103,6 @@
       <c r="J401" s="3">
         <v>0.9431822</v>
       </c>
-      <c r="K401"/>
       <c r="L401">
         <v>0.193237</v>
       </c>
@@ -15539,7 +15138,6 @@
       <c r="J402" s="3">
         <v>2.7533298</v>
       </c>
-      <c r="K402"/>
       <c r="L402">
         <v>6.887565</v>
       </c>
@@ -15575,7 +15173,6 @@
       <c r="J403" s="3">
         <v>0.80717754</v>
       </c>
-      <c r="K403"/>
       <c r="L403">
         <v>0.010615</v>
       </c>
@@ -15611,7 +15208,6 @@
       <c r="J404" s="3">
         <v>0.75365174</v>
       </c>
-      <c r="K404"/>
       <c r="L404">
         <v>0</v>
       </c>
@@ -15647,7 +15243,6 @@
       <c r="J405" s="3">
         <v>1.8102453</v>
       </c>
-      <c r="K405"/>
       <c r="L405">
         <v>0.887413</v>
       </c>
@@ -15683,7 +15278,6 @@
       <c r="J406" s="3">
         <v>4.520745</v>
       </c>
-      <c r="K406"/>
       <c r="L406">
         <v>0.081281</v>
       </c>
@@ -15719,7 +15313,6 @@
       <c r="J407" s="3">
         <v>10.531398</v>
       </c>
-      <c r="K407"/>
       <c r="L407">
         <v>0.131565</v>
       </c>
@@ -15755,7 +15348,6 @@
       <c r="J408" s="3">
         <v>4.172521</v>
       </c>
-      <c r="K408"/>
       <c r="L408">
         <v>0</v>
       </c>
@@ -15791,7 +15383,6 @@
       <c r="J409" s="3">
         <v>7.551393</v>
       </c>
-      <c r="K409"/>
       <c r="L409">
         <v>0</v>
       </c>
@@ -15827,7 +15418,6 @@
       <c r="J410" s="3">
         <v>2.3742616</v>
       </c>
-      <c r="K410"/>
       <c r="L410">
         <v>0.161</v>
       </c>
@@ -15863,7 +15453,6 @@
       <c r="J411" s="3">
         <v>5.341975</v>
       </c>
-      <c r="K411"/>
       <c r="L411">
         <v>0</v>
       </c>
@@ -15899,7 +15488,6 @@
       <c r="J412" s="3">
         <v>7.517439</v>
       </c>
-      <c r="K412"/>
       <c r="L412">
         <v>0.05461</v>
       </c>
@@ -15935,7 +15523,6 @@
       <c r="J413" s="3">
         <v>10.727107</v>
       </c>
-      <c r="K413"/>
       <c r="L413">
         <v>0.020367</v>
       </c>
@@ -15971,7 +15558,6 @@
       <c r="J414" s="3">
         <v>1.4866043</v>
       </c>
-      <c r="K414"/>
       <c r="L414">
         <v>0.709184</v>
       </c>
@@ -16007,7 +15593,6 @@
       <c r="J415" s="3">
         <v>5.501568</v>
       </c>
-      <c r="K415"/>
       <c r="L415">
         <v>0.802647</v>
       </c>
@@ -16043,7 +15628,6 @@
       <c r="J416" s="3">
         <v>1.6446638</v>
       </c>
-      <c r="K416"/>
       <c r="L416">
         <v>0.056113</v>
       </c>
@@ -16079,7 +15663,6 @@
       <c r="J417" s="3">
         <v>4.55547</v>
       </c>
-      <c r="K417"/>
       <c r="L417">
         <v>0.024548</v>
       </c>
@@ -16115,7 +15698,6 @@
       <c r="J418" s="3">
         <v>12.547342</v>
       </c>
-      <c r="K418"/>
       <c r="L418">
         <v>0.015396</v>
       </c>
@@ -16151,7 +15733,6 @@
       <c r="J419" s="3">
         <v>4.7606487</v>
       </c>
-      <c r="K419"/>
       <c r="L419">
         <v>0.188548</v>
       </c>
@@ -16187,7 +15768,6 @@
       <c r="J420" s="3">
         <v>4.167276</v>
       </c>
-      <c r="K420"/>
       <c r="L420">
         <v>0.013134</v>
       </c>
@@ -16223,7 +15803,6 @@
       <c r="J421" s="3">
         <v>1.3118187</v>
       </c>
-      <c r="K421"/>
       <c r="L421">
         <v>0.200767</v>
       </c>
@@ -16259,7 +15838,6 @@
       <c r="J422" s="3">
         <v>3.6802943</v>
       </c>
-      <c r="K422"/>
       <c r="L422">
         <v>0.100357</v>
       </c>
@@ -16295,7 +15873,6 @@
       <c r="J423" s="3">
         <v>1.6157544</v>
       </c>
-      <c r="K423"/>
       <c r="L423">
         <v>0.191781</v>
       </c>
@@ -16331,7 +15908,6 @@
       <c r="J424" s="3">
         <v>10.6073475</v>
       </c>
-      <c r="K424"/>
       <c r="L424">
         <v>0</v>
       </c>
@@ -16367,7 +15943,6 @@
       <c r="J425" s="3">
         <v>0.7710872</v>
       </c>
-      <c r="K425"/>
       <c r="L425">
         <v>0.07533</v>
       </c>
@@ -16403,7 +15978,6 @@
       <c r="J426" s="3">
         <v>1.4093138</v>
       </c>
-      <c r="K426"/>
       <c r="L426">
         <v>0.277474</v>
       </c>
@@ -16439,7 +16013,6 @@
       <c r="J427" s="3">
         <v>2.3176737</v>
       </c>
-      <c r="K427"/>
       <c r="L427">
         <v>0.361</v>
       </c>
@@ -16475,7 +16048,6 @@
       <c r="J428" s="3">
         <v>4.868525</v>
       </c>
-      <c r="K428"/>
       <c r="L428">
         <v>0.00478</v>
       </c>
@@ -16511,7 +16083,6 @@
       <c r="J429" s="3">
         <v>4.8977885</v>
       </c>
-      <c r="K429"/>
       <c r="L429">
         <v>0.574347</v>
       </c>
@@ -16547,7 +16118,6 @@
       <c r="J430" s="3">
         <v>9.578398</v>
       </c>
-      <c r="K430"/>
       <c r="L430">
         <v>0</v>
       </c>
@@ -16583,7 +16153,6 @@
       <c r="J431" s="3">
         <v>3.8643384</v>
       </c>
-      <c r="K431"/>
       <c r="L431">
         <v>0.016426</v>
       </c>
@@ -16619,7 +16188,6 @@
       <c r="J432" s="3">
         <v>14.936085</v>
       </c>
-      <c r="K432"/>
       <c r="L432">
         <v>0</v>
       </c>
@@ -16655,7 +16223,6 @@
       <c r="J433" s="3">
         <v>33.026653</v>
       </c>
-      <c r="K433"/>
       <c r="L433">
         <v>0.022498</v>
       </c>
@@ -16691,7 +16258,6 @@
       <c r="J434" s="3">
         <v>5.614602</v>
       </c>
-      <c r="K434"/>
       <c r="L434">
         <v>0.125431</v>
       </c>
@@ -16727,7 +16293,6 @@
       <c r="J435" s="3">
         <v>2.757691</v>
       </c>
-      <c r="K435"/>
       <c r="L435">
         <v>4.486027</v>
       </c>
@@ -16763,7 +16328,6 @@
       <c r="J436" s="3">
         <v>2.9164808</v>
       </c>
-      <c r="K436"/>
       <c r="L436">
         <v>3.41776</v>
       </c>
@@ -16799,7 +16363,6 @@
       <c r="J437" s="3">
         <v>1.3499602</v>
       </c>
-      <c r="K437"/>
       <c r="L437">
         <v>0.122564</v>
       </c>
@@ -16835,7 +16398,6 @@
       <c r="J438" s="3">
         <v>1.740492</v>
       </c>
-      <c r="K438"/>
       <c r="L438">
         <v>0.122449</v>
       </c>
@@ -16871,7 +16433,6 @@
       <c r="J439" s="3">
         <v>33.030743</v>
       </c>
-      <c r="K439"/>
       <c r="L439">
         <v>0</v>
       </c>
@@ -16907,7 +16468,6 @@
       <c r="J440" s="3">
         <v>0.9295944</v>
       </c>
-      <c r="K440"/>
       <c r="L440">
         <v>0.801442</v>
       </c>
@@ -16943,7 +16503,6 @@
       <c r="J441" s="3">
         <v>2.957492</v>
       </c>
-      <c r="K441"/>
       <c r="L441">
         <v>2.287107</v>
       </c>
@@ -16979,7 +16538,6 @@
       <c r="J442" s="3">
         <v>1.8088642</v>
       </c>
-      <c r="K442"/>
       <c r="L442">
         <v>0.862085</v>
       </c>
@@ -17015,7 +16573,6 @@
       <c r="J443" s="3">
         <v>4.9115286</v>
       </c>
-      <c r="K443"/>
       <c r="L443">
         <v>0.50676</v>
       </c>
@@ -17051,7 +16608,6 @@
       <c r="J444" s="3">
         <v>1.3711811</v>
       </c>
-      <c r="K444"/>
       <c r="L444">
         <v>2.082767</v>
       </c>
@@ -17087,7 +16643,6 @@
       <c r="J445" s="3">
         <v>1.3114129</v>
       </c>
-      <c r="K445"/>
       <c r="L445">
         <v>0.910121</v>
       </c>
@@ -17123,7 +16678,6 @@
       <c r="J446" s="3">
         <v>23.25924</v>
       </c>
-      <c r="K446"/>
       <c r="L446">
         <v>0</v>
       </c>
@@ -17159,7 +16713,6 @@
       <c r="J447" s="3">
         <v>1.4434777</v>
       </c>
-      <c r="K447"/>
       <c r="L447">
         <v>0.048393</v>
       </c>
@@ -17195,7 +16748,6 @@
       <c r="J448" s="3">
         <v>4.9342375</v>
       </c>
-      <c r="K448"/>
       <c r="L448">
         <v>0.042301</v>
       </c>
@@ -17231,7 +16783,6 @@
       <c r="J449" s="3">
         <v>1.5406804</v>
       </c>
-      <c r="K449"/>
       <c r="L449">
         <v>0.182471</v>
       </c>
@@ -17267,7 +16818,6 @@
       <c r="J450" s="3">
         <v>4.9115286</v>
       </c>
-      <c r="K450"/>
       <c r="L450">
         <v>0.228793</v>
       </c>
@@ -17303,7 +16853,6 @@
       <c r="J451" s="3">
         <v>9.610105</v>
       </c>
-      <c r="K451"/>
       <c r="L451">
         <v>0.116698</v>
       </c>
@@ -17339,7 +16888,6 @@
       <c r="J452" s="3">
         <v>1.3766237</v>
       </c>
-      <c r="K452"/>
       <c r="L452">
         <v>9.464</v>
       </c>
@@ -17375,7 +16923,6 @@
       <c r="J453" s="3">
         <v>12.398691</v>
       </c>
-      <c r="K453"/>
       <c r="L453">
         <v>0</v>
       </c>
@@ -17411,7 +16958,6 @@
       <c r="J454" s="3">
         <v>2.0076005</v>
       </c>
-      <c r="K454"/>
       <c r="L454">
         <v>0.276</v>
       </c>
@@ -17447,7 +16993,6 @@
       <c r="J455" s="3">
         <v>9.564758</v>
       </c>
-      <c r="K455"/>
       <c r="L455">
         <v>0.007412</v>
       </c>
@@ -17483,7 +17028,6 @@
       <c r="J456" s="3">
         <v>3.7824833</v>
       </c>
-      <c r="K456"/>
       <c r="L456">
         <v>0.463</v>
       </c>
@@ -17519,7 +17063,6 @@
       <c r="J457" s="3">
         <v>1.715368</v>
       </c>
-      <c r="K457"/>
       <c r="L457">
         <v>0.21</v>
       </c>
@@ -17555,7 +17098,6 @@
       <c r="J458" s="3">
         <v>2.337314</v>
       </c>
-      <c r="K458"/>
       <c r="L458">
         <v>0.0633</v>
       </c>
@@ -17591,7 +17133,6 @@
       <c r="J459" s="3">
         <v>2.4061184</v>
       </c>
-      <c r="K459"/>
       <c r="L459">
         <v>0.24</v>
       </c>
@@ -17627,7 +17168,6 @@
       <c r="J460" s="3">
         <v>0.4102808</v>
       </c>
-      <c r="K460"/>
       <c r="L460">
         <v>0.466853</v>
       </c>
@@ -17663,7 +17203,6 @@
       <c r="J461" s="3">
         <v>4.7050266</v>
       </c>
-      <c r="K461"/>
       <c r="L461">
         <v>0.015297</v>
       </c>
@@ -17699,7 +17238,6 @@
       <c r="J462" s="3">
         <v>27.316277</v>
       </c>
-      <c r="K462"/>
       <c r="L462">
         <v>0.0045</v>
       </c>
@@ -17735,7 +17273,6 @@
       <c r="J463" s="3">
         <v>4.8977885</v>
       </c>
-      <c r="K463"/>
       <c r="L463">
         <v>0.351267</v>
       </c>
@@ -17771,7 +17308,6 @@
       <c r="J464" s="3">
         <v>1.5196481</v>
       </c>
-      <c r="K464"/>
       <c r="L464">
         <v>0.329469</v>
       </c>
@@ -17807,7 +17343,6 @@
       <c r="J465" s="3">
         <v>3.105761</v>
       </c>
-      <c r="K465"/>
       <c r="L465">
         <v>7.704875</v>
       </c>
@@ -17843,7 +17378,6 @@
       <c r="J466" s="3">
         <v>1.2431896</v>
       </c>
-      <c r="K466"/>
       <c r="L466">
         <v>0.133708</v>
       </c>
@@ -17879,7 +17413,6 @@
       <c r="J467" s="3">
         <v>1.901734</v>
       </c>
-      <c r="K467"/>
       <c r="L467">
         <v>1.200034</v>
       </c>
@@ -17915,7 +17448,6 @@
       <c r="J468" s="3">
         <v>0.8483549</v>
       </c>
-      <c r="K468"/>
       <c r="L468">
         <v>0.004347</v>
       </c>
@@ -17951,7 +17483,6 @@
       <c r="J469" s="3">
         <v>1.9611702</v>
       </c>
-      <c r="K469"/>
       <c r="L469">
         <v>0.17276</v>
       </c>
@@ -17987,7 +17518,6 @@
       <c r="J470" s="3">
         <v>1.1418852</v>
       </c>
-      <c r="K470"/>
       <c r="L470">
         <v>0.175767</v>
       </c>
@@ -18023,7 +17553,6 @@
       <c r="J471" s="3">
         <v>2.721681</v>
       </c>
-      <c r="K471"/>
       <c r="L471">
         <v>4.054387</v>
       </c>
@@ -18059,7 +17588,6 @@
       <c r="J472" s="3">
         <v>17.146152</v>
       </c>
-      <c r="K472"/>
       <c r="L472">
         <v>0.009593</v>
       </c>
@@ -18095,7 +17623,6 @@
       <c r="J473" s="3">
         <v>0.8937489</v>
       </c>
-      <c r="K473"/>
       <c r="L473">
         <v>0.022518</v>
       </c>
@@ -18131,7 +17658,6 @@
       <c r="J474" s="3">
         <v>6.2097774</v>
       </c>
-      <c r="K474"/>
       <c r="L474">
         <v>0.072475</v>
       </c>
@@ -18167,7 +17693,6 @@
       <c r="J475" s="3">
         <v>1.4792439</v>
       </c>
-      <c r="K475"/>
       <c r="L475">
         <v>0.076938</v>
       </c>
@@ -18203,7 +17728,6 @@
       <c r="J476" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K476"/>
       <c r="L476">
         <v>10.896829</v>
       </c>
@@ -18239,7 +17763,6 @@
       <c r="J477" s="3">
         <v>7.833448</v>
       </c>
-      <c r="K477"/>
       <c r="L477">
         <v>0.003912</v>
       </c>
@@ -18275,7 +17798,6 @@
       <c r="J478" s="3">
         <v>2.127202</v>
       </c>
-      <c r="K478"/>
       <c r="L478">
         <v>0.18</v>
       </c>
@@ -18311,7 +17833,6 @@
       <c r="J479" s="3">
         <v>1.1693645</v>
       </c>
-      <c r="K479"/>
       <c r="L479">
         <v>1.421261</v>
       </c>
@@ -18347,7 +17868,6 @@
       <c r="J480" s="3">
         <v>2.253849</v>
       </c>
-      <c r="K480"/>
       <c r="L480">
         <v>0.970282</v>
       </c>
@@ -18383,7 +17903,6 @@
       <c r="J481" s="3">
         <v>2.253849</v>
       </c>
-      <c r="K481"/>
       <c r="L481">
         <v>0.404855</v>
       </c>
@@ -18419,7 +17938,6 @@
       <c r="J482" s="3">
         <v>2.824199</v>
       </c>
-      <c r="K482"/>
       <c r="L482">
         <v>21.788339</v>
       </c>
@@ -18455,7 +17973,6 @@
       <c r="J483" s="3">
         <v>1.0322888</v>
       </c>
-      <c r="K483"/>
       <c r="L483">
         <v>0.024821</v>
       </c>
@@ -18491,7 +18008,6 @@
       <c r="J484" s="3">
         <v>6.144091</v>
       </c>
-      <c r="K484"/>
       <c r="L484">
         <v>0.042147</v>
       </c>
@@ -18527,7 +18043,6 @@
       <c r="J485" s="3">
         <v>26.011002</v>
       </c>
-      <c r="K485"/>
       <c r="L485">
         <v>0.004425</v>
       </c>
@@ -18563,7 +18078,6 @@
       <c r="J486" s="3">
         <v>1.4866043</v>
       </c>
-      <c r="K486"/>
       <c r="L486">
         <v>0.131326</v>
       </c>
@@ -18599,7 +18113,6 @@
       <c r="J487" s="3">
         <v>32.152863</v>
       </c>
-      <c r="K487"/>
       <c r="L487">
         <v>1.307278</v>
       </c>
@@ -18635,7 +18148,6 @@
       <c r="J488" s="3">
         <v>1.2411525</v>
       </c>
-      <c r="K488"/>
       <c r="L488">
         <v>0.492551</v>
       </c>
@@ -18671,7 +18183,6 @@
       <c r="J489" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K489"/>
       <c r="L489">
         <v>0.07214</v>
       </c>
@@ -18707,7 +18218,6 @@
       <c r="J490" s="3">
         <v>1.673169</v>
       </c>
-      <c r="K490"/>
       <c r="L490">
         <v>0.172165</v>
       </c>
@@ -18743,7 +18253,6 @@
       <c r="J491" s="3">
         <v>2.0119407</v>
       </c>
-      <c r="K491"/>
       <c r="L491">
         <v>1.415723</v>
       </c>
@@ -18779,7 +18288,6 @@
       <c r="J492" s="3">
         <v>2.6917489</v>
       </c>
-      <c r="K492"/>
       <c r="L492">
         <v>0.488145</v>
       </c>
@@ -18815,7 +18323,6 @@
       <c r="J493" s="3">
         <v>16.818071</v>
       </c>
-      <c r="K493"/>
       <c r="L493">
         <v>0.022057</v>
       </c>
@@ -18851,7 +18358,6 @@
       <c r="J494" s="3">
         <v>29.116302</v>
       </c>
-      <c r="K494"/>
       <c r="L494">
         <v>0.812098</v>
       </c>
@@ -18887,7 +18393,6 @@
       <c r="J495" s="3">
         <v>1.5751175</v>
       </c>
-      <c r="K495"/>
       <c r="L495">
         <v>0.0219</v>
       </c>
@@ -18923,7 +18428,6 @@
       <c r="J496" s="3">
         <v>1.3699821</v>
       </c>
-      <c r="K496"/>
       <c r="L496">
         <v>0.079271</v>
       </c>
@@ -18959,7 +18463,6 @@
       <c r="J497" s="3">
         <v>6.144091</v>
       </c>
-      <c r="K497"/>
       <c r="L497">
         <v>0.031503</v>
       </c>
@@ -18995,7 +18498,6 @@
       <c r="J498" s="3">
         <v>1.6963607</v>
       </c>
-      <c r="K498"/>
       <c r="L498">
         <v>0.184805</v>
       </c>
@@ -19031,7 +18533,6 @@
       <c r="J499" s="3">
         <v>2.33722</v>
       </c>
-      <c r="K499"/>
       <c r="L499">
         <v>26.854787</v>
       </c>
@@ -19067,7 +18568,6 @@
       <c r="J500" s="3">
         <v>1.9883723</v>
       </c>
-      <c r="K500"/>
       <c r="L500">
         <v>0.169886</v>
       </c>
@@ -19103,7 +18603,6 @@
       <c r="J501" s="3">
         <v>3.2597814</v>
       </c>
-      <c r="K501"/>
       <c r="L501">
         <v>0.03628</v>
       </c>
@@ -19139,7 +18638,6 @@
       <c r="J502" s="3">
         <v>4.8871903</v>
       </c>
-      <c r="K502"/>
       <c r="L502">
         <v>0.019469</v>
       </c>
@@ -19175,7 +18673,6 @@
       <c r="J503" s="3">
         <v>1.9883723</v>
       </c>
-      <c r="K503"/>
       <c r="L503">
         <v>0.082305</v>
       </c>
@@ -19211,7 +18708,6 @@
       <c r="J504" s="3">
         <v>1.4347327</v>
       </c>
-      <c r="K504"/>
       <c r="L504">
         <v>0.260531</v>
       </c>
@@ -19247,7 +18743,6 @@
       <c r="J505" s="3">
         <v>1.1693645</v>
       </c>
-      <c r="K505"/>
       <c r="L505">
         <v>0.897001</v>
       </c>
@@ -19283,7 +18778,6 @@
       <c r="J506" s="3">
         <v>1.8378365</v>
       </c>
-      <c r="K506"/>
       <c r="L506">
         <v>0.089993</v>
       </c>
@@ -19319,7 +18813,6 @@
       <c r="J507" s="3">
         <v>2.729451</v>
       </c>
-      <c r="K507"/>
       <c r="L507">
         <v>15.049329</v>
       </c>
@@ -19355,7 +18848,6 @@
       <c r="J508" s="3">
         <v>16.522997</v>
       </c>
-      <c r="K508"/>
       <c r="L508">
         <v>0.094106</v>
       </c>
@@ -19391,7 +18883,6 @@
       <c r="J509" s="3">
         <v>11.266198</v>
       </c>
-      <c r="K509"/>
       <c r="L509">
         <v>1.403375</v>
       </c>
@@ -19427,7 +18918,6 @@
       <c r="J510" s="3">
         <v>7.330869</v>
       </c>
-      <c r="K510"/>
       <c r="L510">
         <v>0.101292</v>
       </c>
@@ -19463,7 +18953,6 @@
       <c r="J511" s="3">
         <v>2.0119407</v>
       </c>
-      <c r="K511"/>
       <c r="L511">
         <v>4.383277</v>
       </c>
@@ -19499,7 +18988,6 @@
       <c r="J512" s="3">
         <v>2.26165</v>
       </c>
-      <c r="K512"/>
       <c r="L512">
         <v>1.36212</v>
       </c>
@@ -19535,7 +19023,6 @@
       <c r="J513" s="3">
         <v>2.3742616</v>
       </c>
-      <c r="K513"/>
       <c r="L513">
         <v>0.118</v>
       </c>
@@ -19571,7 +19058,6 @@
       <c r="J514" s="3">
         <v>1.3272786</v>
       </c>
-      <c r="K514"/>
       <c r="L514">
         <v>2.36587</v>
       </c>
@@ -19607,7 +19093,6 @@
       <c r="J515" s="3">
         <v>2.2394922</v>
       </c>
-      <c r="K515"/>
       <c r="L515">
         <v>17.981816</v>
       </c>
@@ -19643,7 +19128,6 @@
       <c r="J516" s="3">
         <v>2.3775625</v>
       </c>
-      <c r="K516"/>
       <c r="L516">
         <v>4.401403</v>
       </c>
@@ -19679,7 +19163,6 @@
       <c r="J517" s="3">
         <v>2.6917489</v>
       </c>
-      <c r="K517"/>
       <c r="L517">
         <v>0.169082</v>
       </c>
@@ -19715,7 +19198,6 @@
       <c r="J518" s="3">
         <v>1.2071093</v>
       </c>
-      <c r="K518"/>
       <c r="L518">
         <v>0.34</v>
       </c>
@@ -19751,7 +19233,6 @@
       <c r="J519" s="3">
         <v>9.963774</v>
       </c>
-      <c r="K519"/>
       <c r="L519">
         <v>0.006756</v>
       </c>
@@ -19787,7 +19268,6 @@
       <c r="J520" s="3">
         <v>1.9638972</v>
       </c>
-      <c r="K520"/>
       <c r="L520">
         <v>0.025063</v>
       </c>
@@ -19823,7 +19303,6 @@
       <c r="J521" s="3">
         <v>7.3193607</v>
       </c>
-      <c r="K521"/>
       <c r="L521">
         <v>0</v>
       </c>
@@ -19859,7 +19338,6 @@
       <c r="J522" s="3">
         <v>1.7635581</v>
       </c>
-      <c r="K522"/>
       <c r="L522">
         <v>0.098039</v>
       </c>
@@ -19895,7 +19373,6 @@
       <c r="J523" s="3">
         <v>7.2984414</v>
       </c>
-      <c r="K523"/>
       <c r="L523">
         <v>0.013499</v>
       </c>
@@ -19931,7 +19408,6 @@
       <c r="J524" s="3">
         <v>0.7885686</v>
       </c>
-      <c r="K524"/>
       <c r="L524">
         <v>0</v>
       </c>
@@ -19967,7 +19443,6 @@
       <c r="J525" s="3">
         <v>1.4530033</v>
       </c>
-      <c r="K525"/>
       <c r="L525">
         <v>0</v>
       </c>
@@ -20003,7 +19478,6 @@
       <c r="J526" s="3">
         <v>3.2833056</v>
       </c>
-      <c r="K526"/>
       <c r="L526">
         <v>4.256084</v>
       </c>
@@ -20039,7 +19513,6 @@
       <c r="J527" s="3">
         <v>6.5992785</v>
       </c>
-      <c r="K527"/>
       <c r="L527">
         <v>0</v>
       </c>
@@ -20075,7 +19548,6 @@
       <c r="J528" s="3">
         <v>1.154578</v>
       </c>
-      <c r="K528"/>
       <c r="L528">
         <v>0.016375</v>
       </c>
@@ -20111,7 +19583,6 @@
       <c r="J529" s="3">
         <v>1.6182673</v>
       </c>
-      <c r="K529"/>
       <c r="L529">
         <v>0.29</v>
       </c>
@@ -20147,7 +19618,6 @@
       <c r="J530" s="3">
         <v>4.9115286</v>
       </c>
-      <c r="K530"/>
       <c r="L530">
         <v>0.228787</v>
       </c>
@@ -20183,7 +19653,6 @@
       <c r="J531" s="3">
         <v>1.7388594</v>
       </c>
-      <c r="K531"/>
       <c r="L531">
         <v>0.08675</v>
       </c>
@@ -20219,7 +19688,6 @@
       <c r="J532" s="3">
         <v>2.127202</v>
       </c>
-      <c r="K532"/>
       <c r="L532">
         <v>0.0693</v>
       </c>
@@ -20255,7 +19723,6 @@
       <c r="J533" s="3">
         <v>3.2729955</v>
       </c>
-      <c r="K533"/>
       <c r="L533">
         <v>2.06111</v>
       </c>
@@ -20291,7 +19758,6 @@
       <c r="J534" s="3">
         <v>3.7672248</v>
       </c>
-      <c r="K534"/>
       <c r="L534">
         <v>0</v>
       </c>
@@ -20327,7 +19793,6 @@
       <c r="J535" s="3">
         <v>1.6608324</v>
       </c>
-      <c r="K535"/>
       <c r="L535">
         <v>0.020408</v>
       </c>
@@ -20363,7 +19828,6 @@
       <c r="J536" s="3">
         <v>15.4327965</v>
       </c>
-      <c r="K536"/>
       <c r="L536">
         <v>0.022789</v>
       </c>
@@ -20399,7 +19863,6 @@
       <c r="J537" s="3">
         <v>3.2716413</v>
       </c>
-      <c r="K537"/>
       <c r="L537">
         <v>7.831613</v>
       </c>
@@ -20435,7 +19898,6 @@
       <c r="J538" s="3">
         <v>0.80777395</v>
       </c>
-      <c r="K538"/>
       <c r="L538">
         <v>0.027929</v>
       </c>
@@ -20471,7 +19933,6 @@
       <c r="J539" s="3">
         <v>1.6187342</v>
       </c>
-      <c r="K539"/>
       <c r="L539">
         <v>0.514425</v>
       </c>
@@ -20507,7 +19968,6 @@
       <c r="J540" s="3">
         <v>1.8159449</v>
       </c>
-      <c r="K540"/>
       <c r="L540">
         <v>0.213</v>
       </c>
@@ -20543,7 +20003,6 @@
       <c r="J541" s="3">
         <v>8.272931</v>
       </c>
-      <c r="K541"/>
       <c r="L541">
         <v>0</v>
       </c>
@@ -20579,7 +20038,6 @@
       <c r="J542" s="3">
         <v>2.0228333</v>
       </c>
-      <c r="K542"/>
       <c r="L542">
         <v>0.349503</v>
       </c>
@@ -20615,7 +20073,6 @@
       <c r="J543" s="3">
         <v>1.6641556</v>
       </c>
-      <c r="K543"/>
       <c r="L543">
         <v>2.415224</v>
       </c>
@@ -20651,7 +20108,6 @@
       <c r="J544" s="3">
         <v>4.5158744</v>
       </c>
-      <c r="K544"/>
       <c r="L544">
         <v>0.015253</v>
       </c>
@@ -20687,7 +20143,6 @@
       <c r="J545" s="3">
         <v>1.6950121</v>
       </c>
-      <c r="K545"/>
       <c r="L545">
         <v>0.10815</v>
       </c>
@@ -20723,7 +20178,6 @@
       <c r="J546" s="3">
         <v>1.7625935</v>
       </c>
-      <c r="K546"/>
       <c r="L546">
         <v>0.243213</v>
       </c>
@@ -20759,7 +20213,6 @@
       <c r="J547" s="3">
         <v>19.646887</v>
       </c>
-      <c r="K547"/>
       <c r="L547">
         <v>1.264101</v>
       </c>
@@ -20795,7 +20248,6 @@
       <c r="J548" s="3">
         <v>3.9620929</v>
       </c>
-      <c r="K548"/>
       <c r="L548">
         <v>0.266493</v>
       </c>
@@ -20831,7 +20283,6 @@
       <c r="J549" s="3">
         <v>2.9175994</v>
       </c>
-      <c r="K549"/>
       <c r="L549">
         <v>8.89101</v>
       </c>
@@ -20867,7 +20318,6 @@
       <c r="J550" s="3">
         <v>2.56927</v>
       </c>
-      <c r="K550"/>
       <c r="L550">
         <v>0.046752</v>
       </c>
@@ -20903,7 +20353,6 @@
       <c r="J551" s="3">
         <v>1.0802972</v>
       </c>
-      <c r="K551"/>
       <c r="L551">
         <v>0.031364</v>
       </c>
@@ -20939,7 +20388,6 @@
       <c r="J552" s="3">
         <v>3.2487903</v>
       </c>
-      <c r="K552"/>
       <c r="L552">
         <v>6.596453</v>
       </c>
@@ -20975,7 +20423,6 @@
       <c r="J553" s="3">
         <v>1.5056322</v>
       </c>
-      <c r="K553"/>
       <c r="L553">
         <v>0.436909</v>
       </c>
@@ -21011,7 +20458,6 @@
       <c r="J554" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K554"/>
       <c r="L554">
         <v>8.75516</v>
       </c>
@@ -21047,7 +20493,6 @@
       <c r="J555" s="3">
         <v>1.3083549</v>
       </c>
-      <c r="K555"/>
       <c r="L555">
         <v>0.347719</v>
       </c>
@@ -21083,7 +20528,6 @@
       <c r="J556" s="3">
         <v>2.4040928</v>
       </c>
-      <c r="K556"/>
       <c r="L556">
         <v>0.014167</v>
       </c>
@@ -21119,7 +20563,6 @@
       <c r="J557" s="3">
         <v>1.8247257</v>
       </c>
-      <c r="K557"/>
       <c r="L557">
         <v>0.626766</v>
       </c>
@@ -21155,7 +20598,6 @@
       <c r="J558" s="3">
         <v>1.9638972</v>
       </c>
-      <c r="K558"/>
       <c r="L558">
         <v>0.063649</v>
       </c>
@@ -21191,7 +20633,6 @@
       <c r="J559" s="3">
         <v>1.5577587</v>
       </c>
-      <c r="K559"/>
       <c r="L559">
         <v>0.380186</v>
       </c>
@@ -21227,7 +20668,6 @@
       <c r="J560" s="3">
         <v>2.7109735</v>
       </c>
-      <c r="K560"/>
       <c r="L560">
         <v>9.797825</v>
       </c>
@@ -21263,7 +20703,6 @@
       <c r="J561" s="3">
         <v>1.0065762</v>
       </c>
-      <c r="K561"/>
       <c r="L561">
         <v>0.251139</v>
       </c>
@@ -21299,7 +20738,6 @@
       <c r="J562" s="3">
         <v>1.3120196</v>
       </c>
-      <c r="K562"/>
       <c r="L562">
         <v>0.42</v>
       </c>
@@ -21335,7 +20773,6 @@
       <c r="J563" s="3">
         <v>0.74895155</v>
       </c>
-      <c r="K563"/>
       <c r="L563">
         <v>0</v>
       </c>
@@ -21371,7 +20808,6 @@
       <c r="J564" s="3">
         <v>1.7415564</v>
       </c>
-      <c r="K564"/>
       <c r="L564">
         <v>0.44</v>
       </c>
@@ -21407,7 +20843,6 @@
       <c r="J565" s="3">
         <v>1.807952</v>
       </c>
-      <c r="K565"/>
       <c r="L565">
         <v>0.046488</v>
       </c>
@@ -21443,7 +20878,6 @@
       <c r="J566" s="3">
         <v>1.458556</v>
       </c>
-      <c r="K566"/>
       <c r="L566">
         <v>0.433829</v>
       </c>
@@ -21479,7 +20913,6 @@
       <c r="J567" s="3">
         <v>4.4143467</v>
       </c>
-      <c r="K567"/>
       <c r="L567">
         <v>0.281857</v>
       </c>
@@ -21515,7 +20948,6 @@
       <c r="J568" s="3">
         <v>1.7923014</v>
       </c>
-      <c r="K568"/>
       <c r="L568">
         <v>0.34566</v>
       </c>
@@ -21551,7 +20983,6 @@
       <c r="J569" s="3">
         <v>36.5454</v>
       </c>
-      <c r="K569"/>
       <c r="L569">
         <v>1.583333</v>
       </c>
@@ -21587,7 +21018,6 @@
       <c r="J570" s="3">
         <v>2.710468</v>
       </c>
-      <c r="K570"/>
       <c r="L570">
         <v>0.014463</v>
       </c>
@@ -21623,7 +21053,6 @@
       <c r="J571" s="3">
         <v>15.621385</v>
       </c>
-      <c r="K571"/>
       <c r="L571">
         <v>0.04933</v>
       </c>
@@ -21659,7 +21088,6 @@
       <c r="J572" s="3">
         <v>1.7859365</v>
       </c>
-      <c r="K572"/>
       <c r="L572">
         <v>0.9891</v>
       </c>
@@ -21695,7 +21123,6 @@
       <c r="J573" s="3">
         <v>5.700833</v>
       </c>
-      <c r="K573"/>
       <c r="L573">
         <v>0.009461</v>
       </c>
@@ -21731,7 +21158,6 @@
       <c r="J574" s="3">
         <v>28.017868</v>
       </c>
-      <c r="K574"/>
       <c r="L574">
         <v>0</v>
       </c>
@@ -21767,7 +21193,6 @@
       <c r="J575" s="3">
         <v>11.478387</v>
       </c>
-      <c r="K575"/>
       <c r="L575">
         <v>0.046953</v>
       </c>
@@ -21803,7 +21228,6 @@
       <c r="J576" s="3">
         <v>4.6177335</v>
       </c>
-      <c r="K576"/>
       <c r="L576">
         <v>0.036533</v>
       </c>
@@ -21839,7 +21263,6 @@
       <c r="J577" s="3">
         <v>2.9164808</v>
       </c>
-      <c r="K577"/>
       <c r="L577">
         <v>3.417758</v>
       </c>
@@ -21875,7 +21298,6 @@
       <c r="J578" s="3">
         <v>1.206919</v>
       </c>
-      <c r="K578"/>
       <c r="L578">
         <v>0.211163</v>
       </c>
@@ -21911,7 +21333,6 @@
       <c r="J579" s="3">
         <v>3.9620929</v>
       </c>
-      <c r="K579"/>
       <c r="L579">
         <v>0.451787</v>
       </c>
@@ -21947,7 +21368,6 @@
       <c r="J580" s="3">
         <v>8.154829</v>
       </c>
-      <c r="K580"/>
       <c r="L580">
         <v>0.066437</v>
       </c>
@@ -21983,7 +21403,6 @@
       <c r="J581" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K581"/>
       <c r="L581">
         <v>0.02781</v>
       </c>
@@ -22019,7 +21438,6 @@
       <c r="J582" s="3">
         <v>3.71444</v>
       </c>
-      <c r="K582"/>
       <c r="L582">
         <v>0</v>
       </c>
@@ -22055,7 +21473,6 @@
       <c r="J583" s="3">
         <v>1.2375784</v>
       </c>
-      <c r="K583"/>
       <c r="L583">
         <v>0.209651</v>
       </c>
@@ -22091,7 +21508,6 @@
       <c r="J584" s="3">
         <v>1.3415827</v>
       </c>
-      <c r="K584"/>
       <c r="L584">
         <v>0.016424</v>
       </c>
@@ -22127,7 +21543,6 @@
       <c r="J585" s="3">
         <v>11.147761</v>
       </c>
-      <c r="K585"/>
       <c r="L585">
         <v>0.036032</v>
       </c>
@@ -22163,7 +21578,6 @@
       <c r="J586" s="3">
         <v>2.9722402</v>
       </c>
-      <c r="K586"/>
       <c r="L586">
         <v>0.019086</v>
       </c>
@@ -22199,7 +21613,6 @@
       <c r="J587" s="3">
         <v>5.6453214</v>
       </c>
-      <c r="K587"/>
       <c r="L587">
         <v>0.013499</v>
       </c>
@@ -22235,7 +21648,6 @@
       <c r="J588" s="3">
         <v>1.5852005</v>
       </c>
-      <c r="K588"/>
       <c r="L588">
         <v>0</v>
       </c>
@@ -22271,7 +21683,6 @@
       <c r="J589" s="3">
         <v>6.008627</v>
       </c>
-      <c r="K589"/>
       <c r="L589">
         <v>0.007937</v>
       </c>
@@ -22307,7 +21718,6 @@
       <c r="J590" s="3">
         <v>1.4944534</v>
       </c>
-      <c r="K590"/>
       <c r="L590">
         <v>0.148626</v>
       </c>
@@ -22343,7 +21753,6 @@
       <c r="J591" s="3">
         <v>0.8734582</v>
       </c>
-      <c r="K591"/>
       <c r="L591">
         <v>0.1275</v>
       </c>
@@ -22379,7 +21788,6 @@
       <c r="J592" s="3">
         <v>1.8355057</v>
       </c>
-      <c r="K592"/>
       <c r="L592">
         <v>0.724807</v>
       </c>
@@ -22415,7 +21823,6 @@
       <c r="J593" s="3">
         <v>4.3636956</v>
       </c>
-      <c r="K593"/>
       <c r="L593">
         <v>0.097104</v>
       </c>
@@ -22451,7 +21858,6 @@
       <c r="J594" s="3">
         <v>1.927256</v>
       </c>
-      <c r="K594"/>
       <c r="L594">
         <v>0.387333</v>
       </c>
@@ -22487,7 +21893,6 @@
       <c r="J595" s="3">
         <v>7.3126435</v>
       </c>
-      <c r="K595"/>
       <c r="L595">
         <v>0.123985</v>
       </c>
@@ -22523,7 +21928,6 @@
       <c r="J596" s="3">
         <v>9.8564005</v>
       </c>
-      <c r="K596"/>
       <c r="L596">
         <v>0.014854</v>
       </c>
@@ -22559,7 +21963,6 @@
       <c r="J597" s="3">
         <v>1.8378365</v>
       </c>
-      <c r="K597"/>
       <c r="L597">
         <v>0.18485</v>
       </c>
@@ -22595,7 +21998,6 @@
       <c r="J598" s="3">
         <v>3.0017934</v>
       </c>
-      <c r="K598"/>
       <c r="L598">
         <v>1.20877</v>
       </c>
@@ -22631,7 +22033,6 @@
       <c r="J599" s="3">
         <v>3.2718344</v>
       </c>
-      <c r="K599"/>
       <c r="L599">
         <v>10.22576</v>
       </c>
@@ -22667,7 +22068,6 @@
       <c r="J600" s="3">
         <v>0.80458105</v>
       </c>
-      <c r="K600"/>
       <c r="L600">
         <v>0.244531</v>
       </c>
@@ -22703,7 +22103,6 @@
       <c r="J601" s="3">
         <v>3.4756536</v>
       </c>
-      <c r="K601"/>
       <c r="L601">
         <v>10.560453</v>
       </c>
@@ -22739,7 +22138,6 @@
       <c r="J602" s="3">
         <v>13.616726</v>
       </c>
-      <c r="K602"/>
       <c r="L602">
         <v>0.034187</v>
       </c>
@@ -22775,7 +22173,6 @@
       <c r="J603" s="3">
         <v>14.94698</v>
       </c>
-      <c r="K603"/>
       <c r="L603">
         <v>0.01483</v>
       </c>
@@ -22811,7 +22208,6 @@
       <c r="J604" s="3">
         <v>4.9936857</v>
       </c>
-      <c r="K604"/>
       <c r="L604">
         <v>0.008347</v>
       </c>
@@ -22847,7 +22243,6 @@
       <c r="J605" s="3">
         <v>5.977459</v>
       </c>
-      <c r="K605"/>
       <c r="L605">
         <v>0</v>
       </c>
@@ -22883,7 +22278,6 @@
       <c r="J606" s="3">
         <v>1.9196063</v>
       </c>
-      <c r="K606"/>
       <c r="L606">
         <v>1.439939</v>
       </c>
@@ -22919,7 +22313,6 @@
       <c r="J607" s="3">
         <v>9.832996</v>
       </c>
-      <c r="K607"/>
       <c r="L607">
         <v>0.019285</v>
       </c>
@@ -22955,7 +22348,6 @@
       <c r="J608" s="3">
         <v>1.9638972</v>
       </c>
-      <c r="K608"/>
       <c r="L608">
         <v>0.051692</v>
       </c>
@@ -22991,7 +22383,6 @@
       <c r="J609" s="3">
         <v>1.5691849</v>
       </c>
-      <c r="K609"/>
       <c r="L609">
         <v>0.170945</v>
       </c>
@@ -23027,7 +22418,6 @@
       <c r="J610" s="3">
         <v>10.440213</v>
       </c>
-      <c r="K610"/>
       <c r="L610">
         <v>0</v>
       </c>
@@ -23063,7 +22453,6 @@
       <c r="J611" s="3">
         <v>3.2833056</v>
       </c>
-      <c r="K611"/>
       <c r="L611">
         <v>4.256088</v>
       </c>
@@ -23099,7 +22488,6 @@
       <c r="J612" s="3">
         <v>1.8805768</v>
       </c>
-      <c r="K612"/>
       <c r="L612">
         <v>0.116991</v>
       </c>
@@ -23135,7 +22523,6 @@
       <c r="J613" s="3">
         <v>1.9857593</v>
       </c>
-      <c r="K613"/>
       <c r="L613">
         <v>0</v>
       </c>
@@ -23171,7 +22558,6 @@
       <c r="J614" s="3">
         <v>1.311877</v>
       </c>
-      <c r="K614"/>
       <c r="L614">
         <v>0.064788</v>
       </c>
@@ -23207,7 +22593,6 @@
       <c r="J615" s="3">
         <v>1.1744825</v>
       </c>
-      <c r="K615"/>
       <c r="L615">
         <v>0.128452</v>
       </c>
@@ -23243,7 +22628,6 @@
       <c r="J616" s="3">
         <v>11.294065</v>
       </c>
-      <c r="K616"/>
       <c r="L616">
         <v>0</v>
       </c>
@@ -23279,7 +22663,6 @@
       <c r="J617" s="3">
         <v>3.9307728</v>
       </c>
-      <c r="K617"/>
       <c r="L617">
         <v>0.004672</v>
       </c>
@@ -23315,7 +22698,6 @@
       <c r="J618" s="3">
         <v>4.4926095</v>
       </c>
-      <c r="K618"/>
       <c r="L618">
         <v>0.094857</v>
       </c>
@@ -23351,7 +22733,6 @@
       <c r="J619" s="3">
         <v>2.253849</v>
       </c>
-      <c r="K619"/>
       <c r="L619">
         <v>0.318562</v>
       </c>
@@ -23387,7 +22768,6 @@
       <c r="J620" s="3">
         <v>17.993513</v>
       </c>
-      <c r="K620"/>
       <c r="L620">
         <v>2.666667</v>
       </c>
@@ -23423,7 +22803,6 @@
       <c r="J621" s="3">
         <v>2.7671392</v>
       </c>
-      <c r="K621"/>
       <c r="L621">
         <v>4.384549</v>
       </c>
@@ -23459,7 +22838,6 @@
       <c r="J622" s="3">
         <v>3.433033</v>
       </c>
-      <c r="K622"/>
       <c r="L622">
         <v>15.664694</v>
       </c>
@@ -23495,7 +22873,6 @@
       <c r="J623" s="3">
         <v>1.3945656</v>
       </c>
-      <c r="K623"/>
       <c r="L623">
         <v>0.413022</v>
       </c>
@@ -23531,7 +22908,6 @@
       <c r="J624" s="3">
         <v>3.8643384</v>
       </c>
-      <c r="K624"/>
       <c r="L624">
         <v>0.016427</v>
       </c>
@@ -23567,7 +22943,6 @@
       <c r="J625" s="3">
         <v>4.6177335</v>
       </c>
-      <c r="K625"/>
       <c r="L625">
         <v>0.062741</v>
       </c>
@@ -23603,7 +22978,6 @@
       <c r="J626" s="3">
         <v>3.2833056</v>
       </c>
-      <c r="K626"/>
       <c r="L626">
         <v>27.723078</v>
       </c>
@@ -23639,7 +23013,6 @@
       <c r="J627" s="3">
         <v>3.6987035</v>
       </c>
-      <c r="K627"/>
       <c r="L627">
         <v>0.124107</v>
       </c>
@@ -23675,7 +23048,6 @@
       <c r="J628" s="3">
         <v>1.8247257</v>
       </c>
-      <c r="K628"/>
       <c r="L628">
         <v>0.456912</v>
       </c>
@@ -23711,7 +23083,6 @@
       <c r="J629" s="3">
         <v>3.0587358</v>
       </c>
-      <c r="K629"/>
       <c r="L629">
         <v>3.692508</v>
       </c>
@@ -23747,7 +23118,6 @@
       <c r="J630" s="3">
         <v>11.803553</v>
       </c>
-      <c r="K630"/>
       <c r="L630">
         <v>0</v>
       </c>
@@ -23783,7 +23153,6 @@
       <c r="J631" s="3">
         <v>3.7824833</v>
       </c>
-      <c r="K631"/>
       <c r="L631">
         <v>0.62</v>
       </c>
@@ -23819,7 +23188,6 @@
       <c r="J632" s="3">
         <v>10.88462</v>
       </c>
-      <c r="K632"/>
       <c r="L632">
         <v>0.02579</v>
       </c>
@@ -23855,7 +23223,6 @@
       <c r="J633" s="3">
         <v>35.37222</v>
       </c>
-      <c r="K633"/>
       <c r="L633">
         <v>0.014362</v>
       </c>
@@ -23891,7 +23258,6 @@
       <c r="J634" s="3">
         <v>5.331004</v>
       </c>
-      <c r="K634"/>
       <c r="L634">
         <v>0.024933</v>
       </c>
@@ -23927,7 +23293,6 @@
       <c r="J635" s="3">
         <v>5.5304346</v>
       </c>
-      <c r="K635"/>
       <c r="L635">
         <v>0.181459</v>
       </c>
@@ -23963,7 +23328,6 @@
       <c r="J636" s="3">
         <v>4.9115286</v>
       </c>
-      <c r="K636"/>
       <c r="L636">
         <v>0</v>
       </c>
@@ -23999,7 +23363,6 @@
       <c r="J637" s="3">
         <v>11.484702</v>
       </c>
-      <c r="K637"/>
       <c r="L637">
         <v>0.073691</v>
       </c>
@@ -24035,7 +23398,6 @@
       <c r="J638" s="3">
         <v>1.5641559</v>
       </c>
-      <c r="K638"/>
       <c r="L638">
         <v>0.066147</v>
       </c>
@@ -24071,7 +23433,6 @@
       <c r="J639" s="3">
         <v>1.3944442</v>
       </c>
-      <c r="K639"/>
       <c r="L639">
         <v>0.149156</v>
       </c>
@@ -24107,7 +23468,6 @@
       <c r="J640" s="3">
         <v>1.1376805</v>
       </c>
-      <c r="K640"/>
       <c r="L640">
         <v>0.870983</v>
       </c>
@@ -24143,7 +23503,6 @@
       <c r="J641" s="3">
         <v>2.337314</v>
       </c>
-      <c r="K641"/>
       <c r="L641">
         <v>0.103</v>
       </c>
@@ -24179,7 +23538,6 @@
       <c r="J642" s="3">
         <v>0.6402327</v>
       </c>
-      <c r="K642"/>
       <c r="L642">
         <v>0.015583</v>
       </c>
@@ -24215,7 +23573,6 @@
       <c r="J643" s="3">
         <v>3.2435021</v>
       </c>
-      <c r="K643"/>
       <c r="L643">
         <v>0.041433</v>
       </c>
@@ -24251,7 +23608,6 @@
       <c r="J644" s="3">
         <v>2.2246401</v>
       </c>
-      <c r="K644"/>
       <c r="L644">
         <v>0</v>
       </c>
@@ -24287,7 +23643,6 @@
       <c r="J645" s="3">
         <v>2.729451</v>
       </c>
-      <c r="K645"/>
       <c r="L645">
         <v>8.294706</v>
       </c>
@@ -24323,7 +23678,6 @@
       <c r="J646" s="3">
         <v>9.881399</v>
       </c>
-      <c r="K646"/>
       <c r="L646">
         <v>0.063012</v>
       </c>
@@ -24359,7 +23713,6 @@
       <c r="J647" s="3">
         <v>1.8072939</v>
       </c>
-      <c r="K647"/>
       <c r="L647">
         <v>0.94372</v>
       </c>
@@ -24395,7 +23748,6 @@
       <c r="J648" s="3">
         <v>8.52768</v>
       </c>
-      <c r="K648"/>
       <c r="L648">
         <v>0.028302</v>
       </c>
@@ -24431,7 +23783,6 @@
       <c r="J649" s="3">
         <v>1.8977995</v>
       </c>
-      <c r="K649"/>
       <c r="L649">
         <v>0.007885</v>
       </c>
@@ -24467,7 +23818,6 @@
       <c r="J650" s="3">
         <v>49.988155</v>
       </c>
-      <c r="K650"/>
       <c r="L650">
         <v>0.298631</v>
       </c>
@@ -24503,7 +23853,6 @@
       <c r="J651" s="3">
         <v>3.2729955</v>
       </c>
-      <c r="K651"/>
       <c r="L651">
         <v>1.577503</v>
       </c>
@@ -24539,7 +23888,6 @@
       <c r="J652" s="3">
         <v>1.1801994</v>
       </c>
-      <c r="K652"/>
       <c r="L652">
         <v>0.011654</v>
       </c>
@@ -24575,7 +23923,6 @@
       <c r="J653" s="3">
         <v>4.682455</v>
       </c>
-      <c r="K653"/>
       <c r="L653">
         <v>0.013292</v>
       </c>
@@ -24611,7 +23958,6 @@
       <c r="J654" s="3">
         <v>1.6538603</v>
       </c>
-      <c r="K654"/>
       <c r="L654">
         <v>0.277963</v>
       </c>
@@ -24647,7 +23993,6 @@
       <c r="J655" s="3">
         <v>2.1168747</v>
       </c>
-      <c r="K655"/>
       <c r="L655">
         <v>0.118492</v>
       </c>
@@ -24683,7 +24028,6 @@
       <c r="J656" s="3">
         <v>8.217046</v>
       </c>
-      <c r="K656"/>
       <c r="L656">
         <v>0.006555</v>
       </c>
@@ -24719,7 +24063,6 @@
       <c r="J657" s="3">
         <v>4.2271547</v>
       </c>
-      <c r="K657"/>
       <c r="L657">
         <v>0.022834</v>
       </c>
@@ -24755,7 +24098,6 @@
       <c r="J658" s="3">
         <v>5.2149577</v>
       </c>
-      <c r="K658"/>
       <c r="L658">
         <v>0.026947</v>
       </c>
@@ -24791,7 +24133,6 @@
       <c r="J659" s="3">
         <v>20.217966</v>
       </c>
-      <c r="K659"/>
       <c r="L659">
         <v>0</v>
       </c>
@@ -24827,7 +24168,6 @@
       <c r="J660" s="3">
         <v>6.428473</v>
       </c>
-      <c r="K660"/>
       <c r="L660">
         <v>0</v>
       </c>
@@ -24863,7 +24203,6 @@
       <c r="J661" s="3">
         <v>1.6937207</v>
       </c>
-      <c r="K661"/>
       <c r="L661">
         <v>0.9</v>
       </c>
@@ -24899,7 +24238,6 @@
       <c r="J662" s="3">
         <v>4.957795</v>
       </c>
-      <c r="K662"/>
       <c r="L662">
         <v>0</v>
       </c>
@@ -24935,7 +24273,6 @@
       <c r="J663" s="3">
         <v>10.88462</v>
       </c>
-      <c r="K663"/>
       <c r="L663">
         <v>0</v>
       </c>
@@ -24971,7 +24308,6 @@
       <c r="J664" s="3">
         <v>3.2729955</v>
       </c>
-      <c r="K664"/>
       <c r="L664">
         <v>1.791708</v>
       </c>
@@ -25007,7 +24343,6 @@
       <c r="J665" s="3">
         <v>51.777702</v>
       </c>
-      <c r="K665"/>
       <c r="L665">
         <v>0.778166</v>
       </c>
@@ -25043,7 +24378,6 @@
       <c r="J666" s="3">
         <v>0.9291141</v>
       </c>
-      <c r="K666"/>
       <c r="L666">
         <v>0.075771</v>
       </c>
@@ -25079,7 +24413,6 @@
       <c r="J667" s="3">
         <v>7.4405613</v>
       </c>
-      <c r="K667"/>
       <c r="L667">
         <v>0.016824</v>
       </c>
@@ -25115,7 +24448,6 @@
       <c r="J668" s="3">
         <v>11.113432</v>
       </c>
-      <c r="K668"/>
       <c r="L668">
         <v>0.007106</v>
       </c>
@@ -25151,7 +24483,6 @@
       <c r="J669" s="3">
         <v>1.8785648</v>
       </c>
-      <c r="K669"/>
       <c r="L669">
         <v>0.486787</v>
       </c>
@@ -25187,7 +24518,6 @@
       <c r="J670" s="3">
         <v>9.517049</v>
       </c>
-      <c r="K670"/>
       <c r="L670">
         <v>0.066021</v>
       </c>
@@ -25223,7 +24553,6 @@
       <c r="J671" s="3">
         <v>3.031073</v>
       </c>
-      <c r="K671"/>
       <c r="L671">
         <v>0</v>
       </c>
@@ -25259,7 +24588,6 @@
       <c r="J672" s="3">
         <v>3.105761</v>
       </c>
-      <c r="K672"/>
       <c r="L672">
         <v>7.704874</v>
       </c>
@@ -25295,7 +24623,6 @@
       <c r="J673" s="3">
         <v>2.3176737</v>
       </c>
-      <c r="K673"/>
       <c r="L673">
         <v>0.186</v>
       </c>
@@ -25331,7 +24658,6 @@
       <c r="J674" s="3">
         <v>19.646887</v>
       </c>
-      <c r="K674"/>
       <c r="L674">
         <v>1.689791</v>
       </c>
@@ -25367,7 +24693,6 @@
       <c r="J675" s="3">
         <v>3.4528463</v>
       </c>
-      <c r="K675"/>
       <c r="L675">
         <v>0.028995</v>
       </c>
@@ -25403,7 +24728,6 @@
       <c r="J676" s="3">
         <v>1.4895713</v>
       </c>
-      <c r="K676"/>
       <c r="L676">
         <v>0.175739</v>
       </c>
@@ -25439,7 +24763,6 @@
       <c r="J677" s="3">
         <v>1.2121471</v>
       </c>
-      <c r="K677"/>
       <c r="L677">
         <v>0.244066</v>
       </c>
@@ -25475,7 +24798,6 @@
       <c r="J678" s="3">
         <v>1.8864627</v>
       </c>
-      <c r="K678"/>
       <c r="L678">
         <v>3.938291</v>
       </c>
@@ -25511,7 +24833,6 @@
       <c r="J679" s="3">
         <v>1.524693</v>
       </c>
-      <c r="K679"/>
       <c r="L679">
         <v>0.03075</v>
       </c>
@@ -25547,7 +24868,6 @@
       <c r="J680" s="3">
         <v>89.66122</v>
       </c>
-      <c r="K680"/>
       <c r="L680">
         <v>1.1</v>
       </c>
@@ -25583,7 +24903,6 @@
       <c r="J681" s="3">
         <v>1.8463289</v>
       </c>
-      <c r="K681"/>
       <c r="L681">
         <v>0.12693</v>
       </c>
@@ -25619,7 +24938,6 @@
       <c r="J682" s="3">
         <v>6.8748336</v>
       </c>
-      <c r="K682"/>
       <c r="L682">
         <v>0.096683</v>
       </c>
@@ -25655,7 +24973,6 @@
       <c r="J683" s="3">
         <v>1.7428331</v>
       </c>
-      <c r="K683"/>
       <c r="L683">
         <v>1.127342</v>
       </c>
@@ -25691,7 +25008,6 @@
       <c r="J684" s="3">
         <v>1.9323944</v>
       </c>
-      <c r="K684"/>
       <c r="L684">
         <v>0.27</v>
       </c>
@@ -25727,7 +25043,6 @@
       <c r="J685" s="3">
         <v>3.4165046</v>
       </c>
-      <c r="K685"/>
       <c r="L685">
         <v>0.406667</v>
       </c>
@@ -25763,7 +25078,6 @@
       <c r="J686" s="3">
         <v>1.4302759</v>
       </c>
-      <c r="K686"/>
       <c r="L686">
         <v>0.018715</v>
       </c>
@@ -25799,7 +25113,6 @@
       <c r="J687" s="3">
         <v>2.4416258</v>
       </c>
-      <c r="K687"/>
       <c r="L687">
         <v>0.059793</v>
       </c>
@@ -25835,7 +25148,6 @@
       <c r="J688" s="3">
         <v>8.605096</v>
       </c>
-      <c r="K688"/>
       <c r="L688">
         <v>0.013364</v>
       </c>
@@ -25871,7 +25183,6 @@
       <c r="J689" s="3">
         <v>1.2302976</v>
       </c>
-      <c r="K689"/>
       <c r="L689">
         <v>0.002817</v>
       </c>
@@ -25907,7 +25218,6 @@
       <c r="J690" s="3">
         <v>2.3809037</v>
       </c>
-      <c r="K690"/>
       <c r="L690">
         <v>0.426341</v>
       </c>
@@ -25943,7 +25253,6 @@
       <c r="J691" s="3">
         <v>1.9114687</v>
       </c>
-      <c r="K691"/>
       <c r="L691">
         <v>0.347309</v>
       </c>
@@ -25979,7 +25288,6 @@
       <c r="J692" s="3">
         <v>2.9821343</v>
       </c>
-      <c r="K692"/>
       <c r="L692">
         <v>0.497203</v>
       </c>
@@ -26015,7 +25323,6 @@
       <c r="J693" s="3">
         <v>1.4289497</v>
       </c>
-      <c r="K693"/>
       <c r="L693">
         <v>0.225055</v>
       </c>
@@ -26051,7 +25358,6 @@
       <c r="J694" s="3">
         <v>2.6912854</v>
       </c>
-      <c r="K694"/>
       <c r="L694">
         <v>10.103907</v>
       </c>
@@ -26087,7 +25393,6 @@
       <c r="J695" s="3">
         <v>4.20162</v>
       </c>
-      <c r="K695"/>
       <c r="L695">
         <v>0.062157</v>
       </c>
@@ -26123,7 +25428,6 @@
       <c r="J696" s="3">
         <v>4.57991</v>
       </c>
-      <c r="K696"/>
       <c r="L696">
         <v>0.036529</v>
       </c>
@@ -26159,7 +25463,6 @@
       <c r="J697" s="3">
         <v>6.8935933</v>
       </c>
-      <c r="K697"/>
       <c r="L697">
         <v>0.008175</v>
       </c>
@@ -26195,7 +25498,6 @@
       <c r="J698" s="3">
         <v>2.7374513</v>
       </c>
-      <c r="K698"/>
       <c r="L698">
         <v>3.550067</v>
       </c>
@@ -26231,7 +25533,6 @@
       <c r="J699" s="3">
         <v>10.88462</v>
       </c>
-      <c r="K699"/>
       <c r="L699">
         <v>0</v>
       </c>
@@ -26267,7 +25568,6 @@
       <c r="J700" s="3">
         <v>8.512457</v>
       </c>
-      <c r="K700"/>
       <c r="L700">
         <v>0</v>
       </c>
@@ -26303,7 +25603,6 @@
       <c r="J701" s="3">
         <v>9.703717</v>
       </c>
-      <c r="K701"/>
       <c r="L701">
         <v>0</v>
       </c>
@@ -26339,7 +25638,6 @@
       <c r="J702" s="3">
         <v>1.8558776</v>
       </c>
-      <c r="K702"/>
       <c r="L702">
         <v>0.465907</v>
       </c>
@@ -26375,7 +25673,6 @@
       <c r="J703" s="3">
         <v>6.8854537</v>
       </c>
-      <c r="K703"/>
       <c r="L703">
         <v>0.102695</v>
       </c>
@@ -26411,7 +25708,6 @@
       <c r="J704" s="3">
         <v>1.4218141</v>
       </c>
-      <c r="K704"/>
       <c r="L704">
         <v>0.027832</v>
       </c>
@@ -26447,7 +25743,6 @@
       <c r="J705" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K705"/>
       <c r="L705">
         <v>0.423904</v>
       </c>
@@ -26483,7 +25778,6 @@
       <c r="J706" s="3">
         <v>2.9993196</v>
       </c>
-      <c r="K706"/>
       <c r="L706">
         <v>4.632787</v>
       </c>
@@ -26519,7 +25813,6 @@
       <c r="J707" s="3">
         <v>1.6249384</v>
       </c>
-      <c r="K707"/>
       <c r="L707">
         <v>0.1003</v>
       </c>
@@ -26555,7 +25848,6 @@
       <c r="J708" s="3">
         <v>1.1693645</v>
       </c>
-      <c r="K708"/>
       <c r="L708">
         <v>0.561627</v>
       </c>
@@ -26591,7 +25883,6 @@
       <c r="J709" s="3">
         <v>1.8734326</v>
       </c>
-      <c r="K709"/>
       <c r="L709">
         <v>0.897587</v>
       </c>
@@ -26627,7 +25918,6 @@
       <c r="J710" s="3">
         <v>4.7720585</v>
       </c>
-      <c r="K710"/>
       <c r="L710">
         <v>0.017542</v>
       </c>
@@ -26663,7 +25953,6 @@
       <c r="J711" s="3">
         <v>2.127202</v>
       </c>
-      <c r="K711"/>
       <c r="L711">
         <v>0.247</v>
       </c>
@@ -26699,7 +25988,6 @@
       <c r="J712" s="3">
         <v>1.7635581</v>
       </c>
-      <c r="K712"/>
       <c r="L712">
         <v>0.066138</v>
       </c>
@@ -26735,7 +26023,6 @@
       <c r="J713" s="3">
         <v>6.8743906</v>
       </c>
-      <c r="K713"/>
       <c r="L713">
         <v>0.009605</v>
       </c>
@@ -26771,7 +26058,6 @@
       <c r="J714" s="3">
         <v>21.954086</v>
       </c>
-      <c r="K714"/>
       <c r="L714">
         <v>0</v>
       </c>
@@ -26807,7 +26093,6 @@
       <c r="J715" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K715"/>
       <c r="L715">
         <v>0.692863</v>
       </c>
@@ -26843,7 +26128,6 @@
       <c r="J716" s="3">
         <v>8.207938</v>
       </c>
-      <c r="K716"/>
       <c r="L716">
         <v>0.00706</v>
       </c>
@@ -26879,7 +26163,6 @@
       <c r="J717" s="3">
         <v>1.6665207</v>
       </c>
-      <c r="K717"/>
       <c r="L717">
         <v>3.378668</v>
       </c>
@@ -26915,7 +26198,6 @@
       <c r="J718" s="3">
         <v>2.0119407</v>
       </c>
-      <c r="K718"/>
       <c r="L718">
         <v>2.881826</v>
       </c>
@@ -26951,7 +26233,6 @@
       <c r="J719" s="3">
         <v>4.206681</v>
       </c>
-      <c r="K719"/>
       <c r="L719">
         <v>0.697014</v>
       </c>
@@ -26987,7 +26268,6 @@
       <c r="J720" s="3">
         <v>4.2887707</v>
       </c>
-      <c r="K720"/>
       <c r="L720">
         <v>0.024559</v>
       </c>
@@ -27023,7 +26303,6 @@
       <c r="J721" s="3">
         <v>3.4240112</v>
       </c>
-      <c r="K721"/>
       <c r="L721">
         <v>0.016996</v>
       </c>
@@ -27059,7 +26338,6 @@
       <c r="J722" s="3">
         <v>1.0363687</v>
       </c>
-      <c r="K722"/>
       <c r="L722">
         <v>0.121036</v>
       </c>
@@ -27095,7 +26373,6 @@
       <c r="J723" s="3">
         <v>1.6680866</v>
       </c>
-      <c r="K723"/>
       <c r="L723">
         <v>0.057175</v>
       </c>
@@ -27131,7 +26408,6 @@
       <c r="J724" s="3">
         <v>1.6094944</v>
       </c>
-      <c r="K724"/>
       <c r="L724">
         <v>0.613333</v>
       </c>
@@ -27167,7 +26443,6 @@
       <c r="J725" s="3">
         <v>32.152863</v>
       </c>
-      <c r="K725"/>
       <c r="L725">
         <v>1.846447</v>
       </c>
@@ -27203,7 +26478,6 @@
       <c r="J726" s="3">
         <v>6.9465866</v>
       </c>
-      <c r="K726"/>
       <c r="L726">
         <v>0.006645</v>
       </c>
@@ -27239,7 +26513,6 @@
       <c r="J727" s="3">
         <v>3.3923893</v>
       </c>
-      <c r="K727"/>
       <c r="L727">
         <v>13.405547</v>
       </c>
@@ -27275,7 +26548,6 @@
       <c r="J728" s="3">
         <v>0.8754241</v>
       </c>
-      <c r="K728"/>
       <c r="L728">
         <v>0.061327</v>
       </c>
@@ -27311,7 +26583,6 @@
       <c r="J729" s="3">
         <v>1.5352416</v>
       </c>
-      <c r="K729"/>
       <c r="L729">
         <v>0.012198</v>
       </c>
@@ -27347,7 +26618,6 @@
       <c r="J730" s="3">
         <v>51.777702</v>
       </c>
-      <c r="K730"/>
       <c r="L730">
         <v>3.523174</v>
       </c>
@@ -27383,7 +26653,6 @@
       <c r="J731" s="3">
         <v>1.9638972</v>
       </c>
-      <c r="K731"/>
       <c r="L731">
         <v>0.131303</v>
       </c>
@@ -27419,7 +26688,6 @@
       <c r="J732" s="3">
         <v>1.947485</v>
       </c>
-      <c r="K732"/>
       <c r="L732">
         <v>3.922436</v>
       </c>
@@ -27455,7 +26723,6 @@
       <c r="J733" s="3">
         <v>3.2718344</v>
       </c>
-      <c r="K733"/>
       <c r="L733">
         <v>6.183973</v>
       </c>
@@ -27491,7 +26758,6 @@
       <c r="J734" s="3">
         <v>19.28363</v>
       </c>
-      <c r="K734"/>
       <c r="L734">
         <v>0.024366</v>
       </c>
@@ -27527,7 +26793,6 @@
       <c r="J735" s="3">
         <v>1.3664397</v>
       </c>
-      <c r="K735"/>
       <c r="L735">
         <v>0.128412</v>
       </c>
@@ -27563,7 +26828,6 @@
       <c r="J736" s="3">
         <v>8.287622</v>
       </c>
-      <c r="K736"/>
       <c r="L736">
         <v>0.008777</v>
       </c>
@@ -27599,7 +26863,6 @@
       <c r="J737" s="3">
         <v>3.9790409</v>
       </c>
-      <c r="K737"/>
       <c r="L737">
         <v>0.029562</v>
       </c>
@@ -27635,7 +26898,6 @@
       <c r="J738" s="3">
         <v>1.3913432</v>
       </c>
-      <c r="K738"/>
       <c r="L738">
         <v>0.045389</v>
       </c>
@@ -27671,7 +26933,6 @@
       <c r="J739" s="3">
         <v>2.9090443</v>
       </c>
-      <c r="K739"/>
       <c r="L739">
         <v>0.045086</v>
       </c>
@@ -27707,7 +26968,6 @@
       <c r="J740" s="3">
         <v>1.3577331</v>
       </c>
-      <c r="K740"/>
       <c r="L740">
         <v>0.057342</v>
       </c>
@@ -27743,7 +27003,6 @@
       <c r="J741" s="3">
         <v>0.9291141</v>
       </c>
-      <c r="K741"/>
       <c r="L741">
         <v>0.085734</v>
       </c>
@@ -27779,7 +27038,6 @@
       <c r="J742" s="3">
         <v>1.4067364</v>
       </c>
-      <c r="K742"/>
       <c r="L742">
         <v>0.343292</v>
       </c>
@@ -27815,7 +27073,6 @@
       <c r="J743" s="3">
         <v>2.2352767</v>
       </c>
-      <c r="K743"/>
       <c r="L743">
         <v>0.035406</v>
       </c>
@@ -27851,7 +27108,6 @@
       <c r="J744" s="3">
         <v>4.957795</v>
       </c>
-      <c r="K744"/>
       <c r="L744">
         <v>0</v>
       </c>
@@ -27887,7 +27143,6 @@
       <c r="J745" s="3">
         <v>1.5851848</v>
       </c>
-      <c r="K745"/>
       <c r="L745">
         <v>0.139</v>
       </c>
@@ -27923,7 +27178,6 @@
       <c r="J746" s="3">
         <v>2.4416258</v>
       </c>
-      <c r="K746"/>
       <c r="L746">
         <v>0</v>
       </c>
@@ -27959,7 +27213,6 @@
       <c r="J747" s="3">
         <v>23.130026</v>
       </c>
-      <c r="K747"/>
       <c r="L747">
         <v>0</v>
       </c>
@@ -27995,7 +27248,6 @@
       <c r="J748" s="3">
         <v>1.3699821</v>
       </c>
-      <c r="K748"/>
       <c r="L748">
         <v>0.591976</v>
       </c>
@@ -28031,7 +27283,6 @@
       <c r="J749" s="3">
         <v>4.450533</v>
       </c>
-      <c r="K749"/>
       <c r="L749">
         <v>0.019968</v>
       </c>
@@ -28067,7 +27318,6 @@
       <c r="J750" s="3">
         <v>4.897145</v>
       </c>
-      <c r="K750"/>
       <c r="L750">
         <v>0.152619</v>
       </c>
@@ -28103,7 +27353,6 @@
       <c r="J751" s="3">
         <v>3.8127525</v>
       </c>
-      <c r="K751"/>
       <c r="L751">
         <v>0.01931</v>
       </c>
@@ -28139,7 +27388,6 @@
       <c r="J752" s="3">
         <v>3.8643384</v>
       </c>
-      <c r="K752"/>
       <c r="L752">
         <v>0.057427</v>
       </c>
@@ -28175,7 +27423,6 @@
       <c r="J753" s="3">
         <v>4.0464964</v>
       </c>
-      <c r="K753"/>
       <c r="L753">
         <v>0.005593</v>
       </c>
@@ -28211,7 +27458,6 @@
       <c r="J754" s="3">
         <v>3.8643384</v>
       </c>
-      <c r="K754"/>
       <c r="L754">
         <v>0.044293</v>
       </c>
@@ -28247,7 +27493,6 @@
       <c r="J755" s="3">
         <v>2.8589253</v>
       </c>
-      <c r="K755"/>
       <c r="L755">
         <v>0.018355</v>
       </c>
@@ -28283,7 +27528,6 @@
       <c r="J756" s="3">
         <v>1.5217308</v>
       </c>
-      <c r="K756"/>
       <c r="L756">
         <v>0.332265</v>
       </c>
@@ -28319,7 +27563,6 @@
       <c r="J757" s="3">
         <v>1.6897967</v>
       </c>
-      <c r="K757"/>
       <c r="L757">
         <v>5.476374</v>
       </c>
@@ -28355,7 +27598,6 @@
       <c r="J758" s="3">
         <v>4.7073493</v>
       </c>
-      <c r="K758"/>
       <c r="L758">
         <v>0.008418</v>
       </c>
@@ -28391,7 +27633,6 @@
       <c r="J759" s="3">
         <v>0.74895155</v>
       </c>
-      <c r="K759"/>
       <c r="L759">
         <v>0.15963</v>
       </c>
@@ -28427,7 +27668,6 @@
       <c r="J760" s="3">
         <v>1.1097317</v>
       </c>
-      <c r="K760"/>
       <c r="L760">
         <v>0.228473</v>
       </c>
@@ -28463,7 +27703,6 @@
       <c r="J761" s="3">
         <v>1.917042</v>
       </c>
-      <c r="K761"/>
       <c r="L761">
         <v>1.671019</v>
       </c>
@@ -28499,7 +27738,6 @@
       <c r="J762" s="3">
         <v>0.9599488</v>
       </c>
-      <c r="K762"/>
       <c r="L762">
         <v>0.107747</v>
       </c>
@@ -28535,7 +27773,6 @@
       <c r="J763" s="3">
         <v>1.3186302</v>
       </c>
-      <c r="K763"/>
       <c r="L763">
         <v>0.193801</v>
       </c>
@@ -28571,7 +27808,6 @@
       <c r="J764" s="3">
         <v>0.96006656</v>
       </c>
-      <c r="K764"/>
       <c r="L764">
         <v>0.535475</v>
       </c>
@@ -28607,7 +27843,6 @@
       <c r="J765" s="3">
         <v>11.696492</v>
       </c>
-      <c r="K765"/>
       <c r="L765">
         <v>0.033507</v>
       </c>
@@ -28643,7 +27878,6 @@
       <c r="J766" s="3">
         <v>1.7062607</v>
       </c>
-      <c r="K766"/>
       <c r="L766">
         <v>0.050638</v>
       </c>
@@ -28679,7 +27913,6 @@
       <c r="J767" s="3">
         <v>8.14188</v>
       </c>
-      <c r="K767"/>
       <c r="L767">
         <v>0</v>
       </c>
@@ -28715,7 +27948,6 @@
       <c r="J768" s="3">
         <v>2.010156</v>
       </c>
-      <c r="K768"/>
       <c r="L768">
         <v>0.056846</v>
       </c>
@@ -28751,7 +27983,6 @@
       <c r="J769" s="3">
         <v>0.91150427</v>
       </c>
-      <c r="K769"/>
       <c r="L769">
         <v>0.38154</v>
       </c>
@@ -28787,7 +28018,6 @@
       <c r="J770" s="3">
         <v>2.1748934</v>
       </c>
-      <c r="K770"/>
       <c r="L770">
         <v>0</v>
       </c>
@@ -28823,7 +28053,6 @@
       <c r="J771" s="3">
         <v>2.3830547</v>
       </c>
-      <c r="K771"/>
       <c r="L771">
         <v>0.023648</v>
       </c>
@@ -28859,7 +28088,6 @@
       <c r="J772" s="3">
         <v>1.6443714</v>
       </c>
-      <c r="K772"/>
       <c r="L772">
         <v>0.021867</v>
       </c>
@@ -28895,7 +28123,6 @@
       <c r="J773" s="3">
         <v>2.0299451</v>
       </c>
-      <c r="K773"/>
       <c r="L773">
         <v>0.143475</v>
       </c>
@@ -28931,7 +28158,6 @@
       <c r="J774" s="3">
         <v>3.2833056</v>
       </c>
-      <c r="K774"/>
       <c r="L774">
         <v>7.252639</v>
       </c>
@@ -28967,7 +28193,6 @@
       <c r="J775" s="3">
         <v>1.947485</v>
       </c>
-      <c r="K775"/>
       <c r="L775">
         <v>5.743354</v>
       </c>
@@ -29003,7 +28228,6 @@
       <c r="J776" s="3">
         <v>2.337314</v>
       </c>
-      <c r="K776"/>
       <c r="L776">
         <v>0.235</v>
       </c>
@@ -29039,7 +28263,6 @@
       <c r="J777" s="3">
         <v>1.9638972</v>
       </c>
-      <c r="K777"/>
       <c r="L777">
         <v>0.068277</v>
       </c>
@@ -29075,7 +28298,6 @@
       <c r="J778" s="3">
         <v>1.6608324</v>
       </c>
-      <c r="K778"/>
       <c r="L778">
         <v>0.209184</v>
       </c>
@@ -29111,7 +28333,6 @@
       <c r="J779" s="3">
         <v>1.5609545</v>
       </c>
-      <c r="K779"/>
       <c r="L779">
         <v>0.024395</v>
       </c>
@@ -29147,7 +28368,6 @@
       <c r="J780" s="3">
         <v>1.6538603</v>
       </c>
-      <c r="K780"/>
       <c r="L780">
         <v>0.125947</v>
       </c>
@@ -29183,7 +28403,6 @@
       <c r="J781" s="3">
         <v>4.943027</v>
       </c>
-      <c r="K781"/>
       <c r="L781">
         <v>0.043062</v>
       </c>
@@ -29219,7 +28438,6 @@
       <c r="J782" s="3">
         <v>4.3970037</v>
       </c>
-      <c r="K782"/>
       <c r="L782">
         <v>0.022234</v>
       </c>
@@ -29255,7 +28473,6 @@
       <c r="J783" s="3">
         <v>14.976243</v>
       </c>
-      <c r="K783"/>
       <c r="L783">
         <v>0</v>
       </c>
@@ -29291,7 +28508,6 @@
       <c r="J784" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K784"/>
       <c r="L784">
         <v>0.266893</v>
       </c>
@@ -29327,7 +28543,6 @@
       <c r="J785" s="3">
         <v>1.0285149</v>
       </c>
-      <c r="K785"/>
       <c r="L785">
         <v>0.08656</v>
       </c>
@@ -29363,7 +28578,6 @@
       <c r="J786" s="3">
         <v>3.031073</v>
       </c>
-      <c r="K786"/>
       <c r="L786">
         <v>0.022388</v>
       </c>
@@ -29399,7 +28613,6 @@
       <c r="J787" s="3">
         <v>2.7254682</v>
       </c>
-      <c r="K787"/>
       <c r="L787">
         <v>22.527386</v>
       </c>
@@ -29435,7 +28648,6 @@
       <c r="J788" s="3">
         <v>5.2916083</v>
       </c>
-      <c r="K788"/>
       <c r="L788">
         <v>0.526667</v>
       </c>
@@ -29471,7 +28683,6 @@
       <c r="J789" s="3">
         <v>2.0090513</v>
       </c>
-      <c r="K789"/>
       <c r="L789">
         <v>0</v>
       </c>
@@ -29507,7 +28718,6 @@
       <c r="J790" s="3">
         <v>1.6380273</v>
       </c>
-      <c r="K790"/>
       <c r="L790">
         <v>45.836225</v>
       </c>
@@ -29543,7 +28753,6 @@
       <c r="J791" s="3">
         <v>7.0700703</v>
       </c>
-      <c r="K791"/>
       <c r="L791">
         <v>0.036716</v>
       </c>
@@ -29579,7 +28788,6 @@
       <c r="J792" s="3">
         <v>0.82363325</v>
       </c>
-      <c r="K792"/>
       <c r="L792">
         <v>0.034041</v>
       </c>
@@ -29615,7 +28823,6 @@
       <c r="J793" s="3">
         <v>11.573044</v>
       </c>
-      <c r="K793"/>
       <c r="L793">
         <v>0</v>
       </c>
@@ -29651,7 +28858,6 @@
       <c r="J794" s="3">
         <v>4.957795</v>
       </c>
-      <c r="K794"/>
       <c r="L794">
         <v>0</v>
       </c>
@@ -29687,7 +28893,6 @@
       <c r="J795" s="3">
         <v>3.315412</v>
       </c>
-      <c r="K795"/>
       <c r="L795">
         <v>0</v>
       </c>
@@ -29723,7 +28928,6 @@
       <c r="J796" s="3">
         <v>35.618332</v>
       </c>
-      <c r="K796"/>
       <c r="L796">
         <v>0.142892</v>
       </c>
@@ -29759,7 +28963,6 @@
       <c r="J797" s="3">
         <v>1.9196063</v>
       </c>
-      <c r="K797"/>
       <c r="L797">
         <v>0.167273</v>
       </c>
@@ -29795,7 +28998,6 @@
       <c r="J798" s="3">
         <v>1.7484095</v>
       </c>
-      <c r="K798"/>
       <c r="L798">
         <v>0.591322</v>
       </c>
@@ -29831,7 +29033,6 @@
       <c r="J799" s="3">
         <v>0.91150427</v>
       </c>
-      <c r="K799"/>
       <c r="L799">
         <v>0.856102</v>
       </c>
@@ -29867,7 +29068,6 @@
       <c r="J800" s="3">
         <v>70.06694</v>
       </c>
-      <c r="K800"/>
       <c r="L800">
         <v>1.70525</v>
       </c>
@@ -29903,7 +29103,6 @@
       <c r="J801" s="3">
         <v>2.253849</v>
       </c>
-      <c r="K801"/>
       <c r="L801">
         <v>0.411184</v>
       </c>
@@ -29939,7 +29138,6 @@
       <c r="J802" s="3">
         <v>7.309533</v>
       </c>
-      <c r="K802"/>
       <c r="L802">
         <v>0.013667</v>
       </c>
@@ -29975,7 +29173,6 @@
       <c r="J803" s="3">
         <v>6.0294104</v>
       </c>
-      <c r="K803"/>
       <c r="L803">
         <v>0.308071</v>
       </c>
@@ -30011,7 +29208,6 @@
       <c r="J804" s="3">
         <v>2.9821343</v>
       </c>
-      <c r="K804"/>
       <c r="L804">
         <v>2.32681</v>
       </c>
@@ -30047,7 +29243,6 @@
       <c r="J805" s="3">
         <v>7.428342</v>
       </c>
-      <c r="K805"/>
       <c r="L805">
         <v>0.059665</v>
       </c>
@@ -30083,7 +29278,6 @@
       <c r="J806" s="3">
         <v>3.433033</v>
       </c>
-      <c r="K806"/>
       <c r="L806">
         <v>42.069682</v>
       </c>
@@ -30119,7 +29313,6 @@
       <c r="J807" s="3">
         <v>42.06059</v>
       </c>
-      <c r="K807"/>
       <c r="L807">
         <v>0.403167</v>
       </c>
@@ -30155,7 +29348,6 @@
       <c r="J808" s="3">
         <v>1.3609823</v>
       </c>
-      <c r="K808"/>
       <c r="L808">
         <v>0.041093</v>
       </c>
@@ -30191,7 +29383,6 @@
       <c r="J809" s="3">
         <v>2.7524679</v>
       </c>
-      <c r="K809"/>
       <c r="L809">
         <v>11.416893</v>
       </c>
@@ -30227,7 +29418,6 @@
       <c r="J810" s="3">
         <v>1.340847</v>
       </c>
-      <c r="K810"/>
       <c r="L810">
         <v>0.287333</v>
       </c>
@@ -30263,7 +29453,6 @@
       <c r="J811" s="3">
         <v>6.5466146</v>
       </c>
-      <c r="K811"/>
       <c r="L811">
         <v>0</v>
       </c>
@@ -30299,7 +29488,6 @@
       <c r="J812" s="3">
         <v>7.7325945</v>
       </c>
-      <c r="K812"/>
       <c r="L812">
         <v>0.116082</v>
       </c>
@@ -30335,7 +29523,6 @@
       <c r="J813" s="3">
         <v>1.318089</v>
       </c>
-      <c r="K813"/>
       <c r="L813">
         <v>0.570222</v>
       </c>
@@ -30371,7 +29558,6 @@
       <c r="J814" s="3">
         <v>1.145727</v>
       </c>
-      <c r="K814"/>
       <c r="L814">
         <v>0.216508</v>
       </c>
@@ -30407,7 +29593,6 @@
       <c r="J815" s="3">
         <v>21.422953</v>
       </c>
-      <c r="K815"/>
       <c r="L815">
         <v>0.008999</v>
       </c>
@@ -30443,7 +29628,6 @@
       <c r="J816" s="3">
         <v>1.8805768</v>
       </c>
-      <c r="K816"/>
       <c r="L816">
         <v>1.085913</v>
       </c>
@@ -30479,7 +29663,6 @@
       <c r="J817" s="3">
         <v>1.8077419</v>
       </c>
-      <c r="K817"/>
       <c r="L817">
         <v>0.025887</v>
       </c>
@@ -30515,7 +29698,6 @@
       <c r="J818" s="3">
         <v>0.9729056</v>
       </c>
-      <c r="K818"/>
       <c r="L818">
         <v>0.019178</v>
       </c>
@@ -30551,7 +29733,6 @@
       <c r="J819" s="3">
         <v>1.1744825</v>
       </c>
-      <c r="K819"/>
       <c r="L819">
         <v>0.23359</v>
       </c>
@@ -30587,7 +29768,6 @@
       <c r="J820" s="3">
         <v>1.8354875</v>
       </c>
-      <c r="K820"/>
       <c r="L820">
         <v>0.087202</v>
       </c>
@@ -30623,7 +29803,6 @@
       <c r="J821" s="3">
         <v>1.6157544</v>
       </c>
-      <c r="K821"/>
       <c r="L821">
         <v>0.208511</v>
       </c>
@@ -30659,7 +29838,6 @@
       <c r="J822" s="3">
         <v>8.605096</v>
       </c>
-      <c r="K822"/>
       <c r="L822">
         <v>0.009888</v>
       </c>
@@ -30695,7 +29873,6 @@
       <c r="J823" s="3">
         <v>3.6636233</v>
       </c>
-      <c r="K823"/>
       <c r="L823">
         <v>0</v>
       </c>
@@ -30731,7 +29908,6 @@
       <c r="J824" s="3">
         <v>2.797497</v>
       </c>
-      <c r="K824"/>
       <c r="L824">
         <v>0</v>
       </c>
@@ -30767,7 +29943,6 @@
       <c r="J825" s="3">
         <v>0.7020311</v>
       </c>
-      <c r="K825"/>
       <c r="L825">
         <v>0.037517</v>
       </c>
@@ -30803,7 +29978,6 @@
       <c r="J826" s="3">
         <v>1.5376139</v>
       </c>
-      <c r="K826"/>
       <c r="L826">
         <v>0.046483</v>
       </c>
@@ -30839,7 +30013,6 @@
       <c r="J827" s="3">
         <v>1.6155019</v>
       </c>
-      <c r="K827"/>
       <c r="L827">
         <v>0.232996</v>
       </c>
@@ -30875,7 +30048,6 @@
       <c r="J828" s="3">
         <v>1.573203</v>
       </c>
-      <c r="K828"/>
       <c r="L828">
         <v>0.050022</v>
       </c>
@@ -30911,7 +30083,6 @@
       <c r="J829" s="3">
         <v>1.5561038</v>
       </c>
-      <c r="K829"/>
       <c r="L829">
         <v>0.023467</v>
       </c>
@@ -30947,7 +30118,6 @@
       <c r="J830" s="3">
         <v>0.6101489</v>
       </c>
-      <c r="K830"/>
       <c r="L830">
         <v>0.058058</v>
       </c>
@@ -30983,7 +30153,6 @@
       <c r="J831" s="3">
         <v>1.8955334</v>
       </c>
-      <c r="K831"/>
       <c r="L831">
         <v>0.627129</v>
       </c>
@@ -31019,7 +30188,6 @@
       <c r="J832" s="3">
         <v>7.4405613</v>
       </c>
-      <c r="K832"/>
       <c r="L832">
         <v>0.059929</v>
       </c>
@@ -31055,7 +30223,6 @@
       <c r="J833" s="3">
         <v>6.255404</v>
       </c>
-      <c r="K833"/>
       <c r="L833">
         <v>0.325543</v>
       </c>
@@ -31091,7 +30258,6 @@
       <c r="J834" s="3">
         <v>10.50052</v>
       </c>
-      <c r="K834"/>
       <c r="L834">
         <v>0.006639</v>
       </c>
@@ -31127,7 +30293,6 @@
       <c r="J835" s="3">
         <v>1.02971</v>
       </c>
-      <c r="K835"/>
       <c r="L835">
         <v>0.712725</v>
       </c>
@@ -31163,7 +30328,6 @@
       <c r="J836" s="3">
         <v>1.4813538</v>
       </c>
-      <c r="K836"/>
       <c r="L836">
         <v>0.967838</v>
       </c>
@@ -31199,7 +30363,6 @@
       <c r="J837" s="3">
         <v>1.8758817</v>
       </c>
-      <c r="K837"/>
       <c r="L837">
         <v>0.018988</v>
       </c>
@@ -31235,7 +30398,6 @@
       <c r="J838" s="3">
         <v>2.831767</v>
       </c>
-      <c r="K838"/>
       <c r="L838">
         <v>0.107</v>
       </c>
@@ -31271,7 +30433,6 @@
       <c r="J839" s="3">
         <v>33.030743</v>
       </c>
-      <c r="K839"/>
       <c r="L839">
         <v>0.008867</v>
       </c>
@@ -31307,7 +30468,6 @@
       <c r="J840" s="3">
         <v>6.2675014</v>
       </c>
-      <c r="K840"/>
       <c r="L840">
         <v>0.094325</v>
       </c>
@@ -31343,7 +30503,6 @@
       <c r="J841" s="3">
         <v>1.3699821</v>
       </c>
-      <c r="K841"/>
       <c r="L841">
         <v>0</v>
       </c>
@@ -31379,7 +30538,6 @@
       <c r="J842" s="3">
         <v>2.8233364</v>
       </c>
-      <c r="K842"/>
       <c r="L842">
         <v>0.003961</v>
       </c>
@@ -31415,7 +30573,6 @@
       <c r="J843" s="3">
         <v>2.2150242</v>
       </c>
-      <c r="K843"/>
       <c r="L843">
         <v>0.035978</v>
       </c>
@@ -31451,7 +30608,6 @@
       <c r="J844" s="3">
         <v>33.985577</v>
       </c>
-      <c r="K844"/>
       <c r="L844">
         <v>0.670134</v>
       </c>
@@ -31487,7 +30643,6 @@
       <c r="J845" s="3">
         <v>2.0400395</v>
       </c>
-      <c r="K845"/>
       <c r="L845">
         <v>0.607613</v>
       </c>
@@ -31523,7 +30678,6 @@
       <c r="J846" s="3">
         <v>6.3395743</v>
       </c>
-      <c r="K846"/>
       <c r="L846">
         <v>0.366138</v>
       </c>
@@ -31559,7 +30713,6 @@
       <c r="J847" s="3">
         <v>2.729451</v>
       </c>
-      <c r="K847"/>
       <c r="L847">
         <v>8.294709</v>
       </c>
@@ -31595,7 +30748,6 @@
       <c r="J848" s="3">
         <v>1.4738034</v>
       </c>
-      <c r="K848"/>
       <c r="L848">
         <v>0.038661</v>
       </c>
@@ -31631,7 +30783,6 @@
       <c r="J849" s="3">
         <v>1.2652615</v>
       </c>
-      <c r="K849"/>
       <c r="L849">
         <v>0.260657</v>
       </c>
@@ -31667,7 +30818,6 @@
       <c r="J850" s="3">
         <v>1.5856329</v>
       </c>
-      <c r="K850"/>
       <c r="L850">
         <v>0.773862</v>
       </c>
@@ -31703,7 +30853,6 @@
       <c r="J851" s="3">
         <v>2.9212132</v>
       </c>
-      <c r="K851"/>
       <c r="L851">
         <v>0.365369</v>
       </c>
@@ -31739,7 +30888,6 @@
       <c r="J852" s="3">
         <v>1.7775089</v>
       </c>
-      <c r="K852"/>
       <c r="L852">
         <v>2.5</v>
       </c>
@@ -31775,7 +30923,6 @@
       <c r="J853" s="3">
         <v>0.62975025</v>
       </c>
-      <c r="K853"/>
       <c r="L853">
         <v>0.020972</v>
       </c>
@@ -31811,7 +30958,6 @@
       <c r="J854" s="3">
         <v>2.3397832</v>
       </c>
-      <c r="K854"/>
       <c r="L854">
         <v>0.247</v>
       </c>
@@ -31847,7 +30993,6 @@
       <c r="J855" s="3">
         <v>26.52156</v>
       </c>
-      <c r="K855"/>
       <c r="L855">
         <v>0.026998</v>
       </c>
@@ -31883,7 +31028,6 @@
       <c r="J856" s="3">
         <v>29.116302</v>
       </c>
-      <c r="K856"/>
       <c r="L856">
         <v>0.42</v>
       </c>
@@ -31919,7 +31063,6 @@
       <c r="J857" s="3">
         <v>2.4061184</v>
       </c>
-      <c r="K857"/>
       <c r="L857">
         <v>0.0963</v>
       </c>
@@ -31955,7 +31098,6 @@
       <c r="J858" s="3">
         <v>1.5550305</v>
       </c>
-      <c r="K858"/>
       <c r="L858">
         <v>0.197101</v>
       </c>
@@ -31991,7 +31133,6 @@
       <c r="J859" s="3">
         <v>1.740492</v>
       </c>
-      <c r="K859"/>
       <c r="L859">
         <v>0.006734</v>
       </c>
@@ -32027,7 +31168,6 @@
       <c r="J860" s="3">
         <v>1.2440387</v>
       </c>
-      <c r="K860"/>
       <c r="L860">
         <v>0.211004</v>
       </c>
@@ -32063,7 +31203,6 @@
       <c r="J861" s="3">
         <v>1.1582775</v>
       </c>
-      <c r="K861"/>
       <c r="L861">
         <v>0.64</v>
       </c>
@@ -32099,7 +31238,6 @@
       <c r="J862" s="3">
         <v>2.8365784</v>
       </c>
-      <c r="K862"/>
       <c r="L862">
         <v>2.800453</v>
       </c>
@@ -32135,7 +31273,6 @@
       <c r="J863" s="3">
         <v>2.6865954</v>
       </c>
-      <c r="K863"/>
       <c r="L863">
         <v>0.032639</v>
       </c>
@@ -32171,7 +31308,6 @@
       <c r="J864" s="3">
         <v>5.3300495</v>
       </c>
-      <c r="K864"/>
       <c r="L864">
         <v>0.005255</v>
       </c>
@@ -32207,7 +31343,6 @@
       <c r="J865" s="3">
         <v>1.1579691</v>
       </c>
-      <c r="K865"/>
       <c r="L865">
         <v>1.476141</v>
       </c>
@@ -32243,7 +31378,6 @@
       <c r="J866" s="3">
         <v>36.5454</v>
       </c>
-      <c r="K866"/>
       <c r="L866">
         <v>2.0625</v>
       </c>
@@ -32279,7 +31413,6 @@
       <c r="J867" s="3">
         <v>43.417057</v>
       </c>
-      <c r="K867"/>
       <c r="L867">
         <v>0</v>
       </c>
@@ -32315,7 +31448,6 @@
       <c r="J868" s="3">
         <v>7.674542</v>
       </c>
-      <c r="K868"/>
       <c r="L868">
         <v>0</v>
       </c>
@@ -32351,7 +31483,6 @@
       <c r="J869" s="3">
         <v>2.0767403</v>
       </c>
-      <c r="K869"/>
       <c r="L869">
         <v>0.0977</v>
       </c>
@@ -32387,7 +31518,6 @@
       <c r="J870" s="3">
         <v>1.6538603</v>
       </c>
-      <c r="K870"/>
       <c r="L870">
         <v>0.935326</v>
       </c>
@@ -32423,7 +31553,6 @@
       <c r="J871" s="3">
         <v>3.7790332</v>
       </c>
-      <c r="K871"/>
       <c r="L871">
         <v>0.069489</v>
       </c>
@@ -32459,7 +31588,6 @@
       <c r="J872" s="3">
         <v>0.74895155</v>
       </c>
-      <c r="K872"/>
       <c r="L872">
         <v>3.777774</v>
       </c>
@@ -32495,7 +31623,6 @@
       <c r="J873" s="3">
         <v>1.7307031</v>
       </c>
-      <c r="K873"/>
       <c r="L873">
         <v>0.35932</v>
       </c>
@@ -32531,7 +31658,6 @@
       <c r="J874" s="3">
         <v>1.7307031</v>
       </c>
-      <c r="K874"/>
       <c r="L874">
         <v>0.210769</v>
       </c>
@@ -32567,7 +31693,6 @@
       <c r="J875" s="3">
         <v>3.7790332</v>
       </c>
-      <c r="K875"/>
       <c r="L875">
         <v>0.436183</v>
       </c>
@@ -32603,7 +31728,6 @@
       <c r="J876" s="3">
         <v>11.355158</v>
       </c>
-      <c r="K876"/>
       <c r="L876">
         <v>0.020866</v>
       </c>
@@ -32639,7 +31763,6 @@
       <c r="J877" s="3">
         <v>4.55547</v>
       </c>
-      <c r="K877"/>
       <c r="L877">
         <v>0.066022</v>
       </c>
@@ -32675,7 +31798,6 @@
       <c r="J878" s="3">
         <v>2.5004756</v>
       </c>
-      <c r="K878"/>
       <c r="L878">
         <v>0.005394</v>
       </c>
@@ -32711,7 +31833,6 @@
       <c r="J879" s="3">
         <v>7.517439</v>
       </c>
-      <c r="K879"/>
       <c r="L879">
         <v>0.01231</v>
       </c>
@@ -32747,7 +31868,6 @@
       <c r="J880" s="3">
         <v>2.753908</v>
       </c>
-      <c r="K880"/>
       <c r="L880">
         <v>0.020834</v>
       </c>
@@ -32783,7 +31903,6 @@
       <c r="J881" s="3">
         <v>0.74994034</v>
       </c>
-      <c r="K881"/>
       <c r="L881">
         <v>0.192579</v>
       </c>
@@ -32819,7 +31938,6 @@
       <c r="J882" s="3">
         <v>4.7870255</v>
       </c>
-      <c r="K882"/>
       <c r="L882">
         <v>0.008518</v>
       </c>
@@ -32855,7 +31973,6 @@
       <c r="J883" s="3">
         <v>1.0963136</v>
       </c>
-      <c r="K883"/>
       <c r="L883">
         <v>0.012681</v>
       </c>
@@ -32891,7 +32008,6 @@
       <c r="J884" s="3">
         <v>1.2311262</v>
       </c>
-      <c r="K884"/>
       <c r="L884">
         <v>0.083714</v>
       </c>
@@ -32927,7 +32043,6 @@
       <c r="J885" s="3">
         <v>9.133503</v>
       </c>
-      <c r="K885"/>
       <c r="L885">
         <v>0.127074</v>
       </c>
@@ -32963,7 +32078,6 @@
       <c r="J886" s="3">
         <v>2.0162394</v>
       </c>
-      <c r="K886"/>
       <c r="L886">
         <v>26.676667</v>
       </c>
@@ -32999,7 +32113,6 @@
       <c r="J887" s="3">
         <v>10.108364</v>
       </c>
-      <c r="K887"/>
       <c r="L887">
         <v>0.055279</v>
       </c>
@@ -33035,7 +32148,6 @@
       <c r="J888" s="3">
         <v>3.4383874</v>
       </c>
-      <c r="K888"/>
       <c r="L888">
         <v>0.517937</v>
       </c>
@@ -33071,7 +32183,6 @@
       <c r="J889" s="3">
         <v>31.246952</v>
       </c>
-      <c r="K889"/>
       <c r="L889">
         <v>0</v>
       </c>
@@ -33107,7 +32218,6 @@
       <c r="J890" s="3">
         <v>2.6186583</v>
       </c>
-      <c r="K890"/>
       <c r="L890">
         <v>0.083135</v>
       </c>
@@ -33143,7 +32253,6 @@
       <c r="J891" s="3">
         <v>3.1953669</v>
       </c>
-      <c r="K891"/>
       <c r="L891">
         <v>0</v>
       </c>
@@ -33179,7 +32288,6 @@
       <c r="J892" s="3">
         <v>1.5373087</v>
       </c>
-      <c r="K892"/>
       <c r="L892">
         <v>0.109957</v>
       </c>
@@ -33215,7 +32323,6 @@
       <c r="J893" s="3">
         <v>3.1814985</v>
       </c>
-      <c r="K893"/>
       <c r="L893">
         <v>3.92704</v>
       </c>
@@ -33251,7 +32358,6 @@
       <c r="J894" s="3">
         <v>1.7015872</v>
       </c>
-      <c r="K894"/>
       <c r="L894">
         <v>1.69382</v>
       </c>
@@ -33287,7 +32393,6 @@
       <c r="J895" s="3">
         <v>7.8145804</v>
       </c>
-      <c r="K895"/>
       <c r="L895">
         <v>0.020838</v>
       </c>
@@ -33323,7 +32428,6 @@
       <c r="J896" s="3">
         <v>1.2512825</v>
       </c>
-      <c r="K896"/>
       <c r="L896">
         <v>0.416761</v>
       </c>
@@ -33359,7 +32463,6 @@
       <c r="J897" s="3">
         <v>3.2833056</v>
       </c>
-      <c r="K897"/>
       <c r="L897">
         <v>27.723083</v>
       </c>
@@ -33395,7 +32498,6 @@
       <c r="J898" s="3">
         <v>23.130026</v>
       </c>
-      <c r="K898"/>
       <c r="L898">
         <v>0</v>
       </c>
@@ -33431,7 +32533,6 @@
       <c r="J899" s="3">
         <v>1.1124514</v>
       </c>
-      <c r="K899"/>
       <c r="L899">
         <v>0</v>
       </c>
@@ -33467,7 +32568,6 @@
       <c r="J900" s="3">
         <v>1.1076932</v>
       </c>
-      <c r="K900"/>
       <c r="L900">
         <v>0.397995</v>
       </c>
@@ -33503,7 +32603,6 @@
       <c r="J901" s="3">
         <v>1.3190858</v>
       </c>
-      <c r="K901"/>
       <c r="L901">
         <v>0.174134</v>
       </c>
@@ -33539,7 +32638,6 @@
       <c r="J902" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K902"/>
       <c r="L902">
         <v>0.266908</v>
       </c>
@@ -33575,7 +32673,6 @@
       <c r="J903" s="3">
         <v>54.529526</v>
       </c>
-      <c r="K903"/>
       <c r="L903">
         <v>0</v>
       </c>
@@ -33611,7 +32708,6 @@
       <c r="J904" s="3">
         <v>7.3782115</v>
       </c>
-      <c r="K904"/>
       <c r="L904">
         <v>0</v>
       </c>
@@ -33647,7 +32743,6 @@
       <c r="J905" s="3">
         <v>1.2553704</v>
       </c>
-      <c r="K905"/>
       <c r="L905">
         <v>1.093829</v>
       </c>
@@ -33683,7 +32778,6 @@
       <c r="J906" s="3">
         <v>1.6156434</v>
       </c>
-      <c r="K906"/>
       <c r="L906">
         <v>1.159333</v>
       </c>
@@ -33719,7 +32813,6 @@
       <c r="J907" s="3">
         <v>1.4203598</v>
       </c>
-      <c r="K907"/>
       <c r="L907">
         <v>0.52381</v>
       </c>
@@ -33755,7 +32848,6 @@
       <c r="J908" s="3">
         <v>1.7484095</v>
       </c>
-      <c r="K908"/>
       <c r="L908">
         <v>1.022849</v>
       </c>
@@ -33791,7 +32883,6 @@
       <c r="J909" s="3">
         <v>1.6495601</v>
       </c>
-      <c r="K909"/>
       <c r="L909">
         <v>0.023075</v>
       </c>
@@ -33827,7 +32918,6 @@
       <c r="J910" s="3">
         <v>1.558536</v>
       </c>
-      <c r="K910"/>
       <c r="L910">
         <v>0.262782</v>
       </c>
@@ -33863,7 +32953,6 @@
       <c r="J911" s="3">
         <v>2.0995758</v>
       </c>
-      <c r="K911"/>
       <c r="L911">
         <v>0.089249</v>
       </c>
@@ -33899,7 +32988,6 @@
       <c r="J912" s="3">
         <v>18.490318</v>
       </c>
-      <c r="K912"/>
       <c r="L912">
         <v>0.017936</v>
       </c>
@@ -33935,7 +33023,6 @@
       <c r="J913" s="3">
         <v>2.9556806</v>
       </c>
-      <c r="K913"/>
       <c r="L913">
         <v>5.70248</v>
       </c>
@@ -33971,7 +33058,6 @@
       <c r="J914" s="3">
         <v>1.0223535</v>
       </c>
-      <c r="K914"/>
       <c r="L914">
         <v>0.02433</v>
       </c>
@@ -34007,7 +33093,6 @@
       <c r="J915" s="3">
         <v>7.4764047</v>
       </c>
-      <c r="K915"/>
       <c r="L915">
         <v>0.56057</v>
       </c>
@@ -34043,7 +33128,6 @@
       <c r="J916" s="3">
         <v>1.7106704</v>
       </c>
-      <c r="K916"/>
       <c r="L916">
         <v>0.353437</v>
       </c>
@@ -34079,7 +33163,6 @@
       <c r="J917" s="3">
         <v>1.6608324</v>
       </c>
-      <c r="K917"/>
       <c r="L917">
         <v>0.031328</v>
       </c>
@@ -34115,7 +33198,6 @@
       <c r="J918" s="3">
         <v>9.832996</v>
       </c>
-      <c r="K918"/>
       <c r="L918">
         <v>0.049002</v>
       </c>
@@ -34151,7 +33233,6 @@
       <c r="J919" s="3">
         <v>2.5772724</v>
       </c>
-      <c r="K919"/>
       <c r="L919">
         <v>8.049147</v>
       </c>
@@ -34187,7 +33268,6 @@
       <c r="J920" s="3">
         <v>1.899922</v>
       </c>
-      <c r="K920"/>
       <c r="L920">
         <v>1.173333</v>
       </c>
@@ -34223,7 +33303,6 @@
       <c r="J921" s="3">
         <v>1.534963</v>
       </c>
-      <c r="K921"/>
       <c r="L921">
         <v>0</v>
       </c>
@@ -34259,7 +33338,6 @@
       <c r="J922" s="3">
         <v>1.7234794</v>
       </c>
-      <c r="K922"/>
       <c r="L922">
         <v>0.19</v>
       </c>
@@ -34295,7 +33373,6 @@
       <c r="J923" s="3">
         <v>23.130026</v>
       </c>
-      <c r="K923"/>
       <c r="L923">
         <v>0.005961</v>
       </c>
@@ -34331,7 +33408,6 @@
       <c r="J924" s="3">
         <v>2.895005</v>
       </c>
-      <c r="K924"/>
       <c r="L924">
         <v>0.017691</v>
       </c>
@@ -34367,7 +33443,6 @@
       <c r="J925" s="3">
         <v>2.748574</v>
       </c>
-      <c r="K925"/>
       <c r="L925">
         <v>0.127</v>
       </c>
@@ -34403,7 +33478,6 @@
       <c r="J926" s="3">
         <v>1.9217077</v>
       </c>
-      <c r="K926"/>
       <c r="L926">
         <v>0.249738</v>
       </c>
@@ -34439,7 +33513,6 @@
       <c r="J927" s="3">
         <v>2.2394922</v>
       </c>
-      <c r="K927"/>
       <c r="L927">
         <v>17.133118</v>
       </c>
@@ -34475,7 +33548,6 @@
       <c r="J928" s="3">
         <v>4.906044</v>
       </c>
-      <c r="K928"/>
       <c r="L928">
         <v>0.225071</v>
       </c>
@@ -34511,7 +33583,6 @@
       <c r="J929" s="3">
         <v>6.6689</v>
       </c>
-      <c r="K929"/>
       <c r="L929">
         <v>0</v>
       </c>
@@ -34547,7 +33618,6 @@
       <c r="J930" s="3">
         <v>6.8743906</v>
       </c>
-      <c r="K930"/>
       <c r="L930">
         <v>0.075595</v>
       </c>
@@ -34583,7 +33653,6 @@
       <c r="J931" s="3">
         <v>4.6233783</v>
       </c>
-      <c r="K931"/>
       <c r="L931">
         <v>0.009373</v>
       </c>
@@ -34619,7 +33688,6 @@
       <c r="J932" s="3">
         <v>1.4871335</v>
       </c>
-      <c r="K932"/>
       <c r="L932">
         <v>0.051813</v>
       </c>
@@ -34655,7 +33723,6 @@
       <c r="J933" s="3">
         <v>6.739495</v>
       </c>
-      <c r="K933"/>
       <c r="L933">
         <v>0.036106</v>
       </c>
@@ -34691,7 +33758,6 @@
       <c r="J934" s="3">
         <v>1.740492</v>
       </c>
-      <c r="K934"/>
       <c r="L934">
         <v>0.063197</v>
       </c>
@@ -34727,7 +33793,6 @@
       <c r="J935" s="3">
         <v>1.7084011</v>
       </c>
-      <c r="K935"/>
       <c r="L935">
         <v>0.046479</v>
       </c>
@@ -34763,7 +33828,6 @@
       <c r="J936" s="3">
         <v>1.6495601</v>
       </c>
-      <c r="K936"/>
       <c r="L936">
         <v>0.016665</v>
       </c>
@@ -34799,7 +33863,6 @@
       <c r="J937" s="3">
         <v>3.3282888</v>
       </c>
-      <c r="K937"/>
       <c r="L937">
         <v>0.00349</v>
       </c>
@@ -34835,7 +33898,6 @@
       <c r="J938" s="3">
         <v>4.5446906</v>
       </c>
-      <c r="K938"/>
       <c r="L938">
         <v>0</v>
       </c>
@@ -34871,7 +33933,6 @@
       <c r="J939" s="3">
         <v>1.740492</v>
       </c>
-      <c r="K939"/>
       <c r="L939">
         <v>0.078947</v>
       </c>
@@ -34907,7 +33968,6 @@
       <c r="J940" s="3">
         <v>3.2729955</v>
       </c>
-      <c r="K940"/>
       <c r="L940">
         <v>1.740947</v>
       </c>
@@ -34943,7 +34003,6 @@
       <c r="J941" s="3">
         <v>2.4568596</v>
       </c>
-      <c r="K941"/>
       <c r="L941">
         <v>0.112949</v>
       </c>
@@ -34979,7 +34038,6 @@
       <c r="J942" s="3">
         <v>0.927556</v>
       </c>
-      <c r="K942"/>
       <c r="L942">
         <v>0.012493</v>
       </c>
@@ -35015,7 +34073,6 @@
       <c r="J943" s="3">
         <v>6.9287167</v>
       </c>
-      <c r="K943"/>
       <c r="L943">
         <v>0.028456</v>
       </c>
@@ -35051,7 +34108,6 @@
       <c r="J944" s="3">
         <v>1.598427</v>
       </c>
-      <c r="K944"/>
       <c r="L944">
         <v>0.0567</v>
       </c>
@@ -35087,7 +34143,6 @@
       <c r="J945" s="3">
         <v>15.4327965</v>
       </c>
-      <c r="K945"/>
       <c r="L945">
         <v>0.010294</v>
       </c>
@@ -35123,7 +34178,6 @@
       <c r="J946" s="3">
         <v>1.7583147</v>
       </c>
-      <c r="K946"/>
       <c r="L946">
         <v>0.038544</v>
       </c>
@@ -35159,7 +34213,6 @@
       <c r="J947" s="3">
         <v>2.839709</v>
       </c>
-      <c r="K947"/>
       <c r="L947">
         <v>4.697453</v>
       </c>
@@ -35195,7 +34248,6 @@
       <c r="J948" s="3">
         <v>2.2243745</v>
       </c>
-      <c r="K948"/>
       <c r="L948">
         <v>0.478667</v>
       </c>
@@ -35231,7 +34283,6 @@
       <c r="J949" s="3">
         <v>23.926264</v>
       </c>
-      <c r="K949"/>
       <c r="L949">
         <v>0</v>
       </c>
@@ -35267,7 +34318,6 @@
       <c r="J950" s="3">
         <v>4.761593</v>
       </c>
-      <c r="K950"/>
       <c r="L950">
         <v>0</v>
       </c>
@@ -35303,7 +34353,6 @@
       <c r="J951" s="3">
         <v>3.7314892</v>
       </c>
-      <c r="K951"/>
       <c r="L951">
         <v>0</v>
       </c>
@@ -35339,7 +34388,6 @@
       <c r="J952" s="3">
         <v>1.9829011</v>
       </c>
-      <c r="K952"/>
       <c r="L952">
         <v>0.014271</v>
       </c>
@@ -35375,7 +34423,6 @@
       <c r="J953" s="3">
         <v>1.6950898</v>
       </c>
-      <c r="K953"/>
       <c r="L953">
         <v>8.755165</v>
       </c>
@@ -35411,7 +34458,6 @@
       <c r="J954" s="3">
         <v>4.0642176</v>
       </c>
-      <c r="K954"/>
       <c r="L954">
         <v>0.936929</v>
       </c>
@@ -35447,7 +34493,6 @@
       <c r="J955" s="3">
         <v>10.064885</v>
       </c>
-      <c r="K955"/>
       <c r="L955">
         <v>0</v>
       </c>
